--- a/BOM/Employee/employee.xlsx
+++ b/BOM/Employee/employee.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordan/Alitec/Bom/BOM/Employee/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordan/Alitec/docker/odoo18/repo/lingjack-import-script/BOM/Employee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96CBD21B-147C-D542-BBAD-88F3E1024780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D25A42-AFC2-8249-A22B-6AA0B7FDE5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="21600" windowHeight="22240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LJE" sheetId="16" r:id="rId1"/>
+    <sheet name="LJE " sheetId="16" r:id="rId1"/>
     <sheet name="LJ Fire" sheetId="5" r:id="rId2"/>
     <sheet name="LJD" sheetId="6" r:id="rId3"/>
     <sheet name="LJDT" sheetId="4" r:id="rId4"/>
@@ -24,10 +24,10 @@
     <sheet name="lookup" sheetId="17" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LJE!$A$1:$AJ$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'LJE '!$A$1:$AJ$103</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">lookup!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,6 +36,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="991">
   <si>
     <t>Employee Name</t>
   </si>
@@ -2287,12 +2288,6 @@
     <t>YIN DEZHUANG</t>
   </si>
   <si>
-    <t>Emergency Contact Name</t>
-  </si>
-  <si>
-    <t>Emergency Contact Phone</t>
-  </si>
-  <si>
     <t>M3401812R</t>
   </si>
   <si>
@@ -2363,6 +2358,9 @@
   </si>
   <si>
     <t>K5451972B</t>
+  </si>
+  <si>
+    <t>HO KIAN TECK</t>
   </si>
   <si>
     <t>K4401890D</t>
@@ -3069,7 +3067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3079,12 +3077,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3095,7 +3089,48 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3397,16 +3432,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064F60C6-3E6C-4E07-B0A1-9D5C9591EF3A}">
   <dimension ref="A1:AJ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="7" width="30.6640625" customWidth="1"/>
     <col min="8" max="9" width="16.83203125" customWidth="1"/>
     <col min="10" max="22" width="30.6640625" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" style="5" customWidth="1"/>
     <col min="24" max="29" width="30.6640625" customWidth="1"/>
-    <col min="30" max="30" width="30.6640625" style="6" customWidth="1"/>
+    <col min="30" max="30" width="30.6640625" style="5" customWidth="1"/>
     <col min="31" max="31" width="14.6640625" customWidth="1"/>
     <col min="32" max="32" width="3.1640625" customWidth="1"/>
     <col min="33" max="33" width="18.5" style="3" customWidth="1"/>
@@ -3481,7 +3518,7 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
@@ -3502,7 +3539,7 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -3511,17 +3548,17 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="8" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>747</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>748</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -3556,25 +3593,25 @@
         <v>539</v>
       </c>
       <c r="S2" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="U2" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="5">
         <v>36048</v>
       </c>
       <c r="Y2" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD2" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD2" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -3625,25 +3662,25 @@
         <v>539</v>
       </c>
       <c r="S3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="V3" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="5">
         <v>35692</v>
       </c>
       <c r="Y3" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD3" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD3" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -3682,7 +3719,7 @@
         <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J4" t="s">
         <v>40</v>
@@ -3694,25 +3731,25 @@
         <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="U4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="V4" t="s">
         <v>51</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="5">
         <v>25921</v>
       </c>
       <c r="Y4" t="s">
-        <v>985</v>
-      </c>
-      <c r="AD4" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="AD4" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -3760,24 +3797,24 @@
         <v>41</v>
       </c>
       <c r="R5" t="s">
+        <v>755</v>
+      </c>
+      <c r="S5" t="s">
+        <v>756</v>
+      </c>
+      <c r="U5" t="s">
         <v>757</v>
-      </c>
-      <c r="S5" t="s">
-        <v>758</v>
-      </c>
-      <c r="U5" t="s">
-        <v>759</v>
       </c>
       <c r="V5" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="5">
         <v>32426</v>
       </c>
       <c r="Y5" t="s">
-        <v>988</v>
-      </c>
-      <c r="AD5" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="AD5" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE5" t="s">
@@ -3835,24 +3872,24 @@
         <v>60</v>
       </c>
       <c r="S6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="U6" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="V6" t="s">
         <v>43</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="5">
         <v>31666</v>
       </c>
       <c r="Y6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AC6" t="s">
         <v>85</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="5">
         <v>46389</v>
       </c>
       <c r="AE6" t="s">
@@ -3910,21 +3947,21 @@
         <v>540</v>
       </c>
       <c r="S7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="U7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="V7" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="5">
         <v>31085</v>
       </c>
       <c r="Y7" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD7" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD7" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE7" t="s">
@@ -3982,21 +4019,21 @@
         <v>540</v>
       </c>
       <c r="S8" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="U8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="V8" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="5">
         <v>32918</v>
       </c>
       <c r="Y8" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD8" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD8" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE8" t="s">
@@ -4033,7 +4070,7 @@
         <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
       <c r="F9" t="s">
         <v>134</v>
@@ -4057,19 +4094,19 @@
         <v>561</v>
       </c>
       <c r="U9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="V9" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="5">
         <v>22006</v>
       </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AD9" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4105,13 +4142,13 @@
         <v>686</v>
       </c>
       <c r="F10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G10">
         <v>84443859</v>
       </c>
       <c r="J10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="L10">
         <v>640515</v>
@@ -4120,31 +4157,31 @@
         <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S10" t="s">
+        <v>775</v>
+      </c>
+      <c r="U10" t="s">
         <v>776</v>
-      </c>
-      <c r="U10" t="s">
-        <v>777</v>
       </c>
       <c r="V10" t="s">
         <v>51</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="5">
         <v>36932</v>
       </c>
       <c r="Y10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AC10" t="s">
-        <v>778</v>
-      </c>
-      <c r="AD10" s="6">
+        <v>777</v>
+      </c>
+      <c r="AD10" s="5">
         <v>46722</v>
       </c>
       <c r="AE10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -4154,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="AH10" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AI10" t="s">
         <v>428</v>
@@ -4192,24 +4229,24 @@
         <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S11" t="s">
+        <v>778</v>
+      </c>
+      <c r="U11" t="s">
         <v>779</v>
-      </c>
-      <c r="U11" t="s">
-        <v>780</v>
       </c>
       <c r="V11" t="s">
         <v>43</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="5">
         <v>27293</v>
       </c>
       <c r="Y11" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD11" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="AD11" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE11" t="s">
@@ -4267,21 +4304,21 @@
         <v>539</v>
       </c>
       <c r="S12" t="s">
+        <v>781</v>
+      </c>
+      <c r="U12" t="s">
         <v>782</v>
-      </c>
-      <c r="U12" t="s">
-        <v>783</v>
       </c>
       <c r="V12" t="s">
         <v>51</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="5">
         <v>34258</v>
       </c>
       <c r="Y12" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD12" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD12" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE12" t="s">
@@ -4339,25 +4376,25 @@
         <v>539</v>
       </c>
       <c r="S13" t="s">
+        <v>783</v>
+      </c>
+      <c r="U13" t="s">
         <v>784</v>
-      </c>
-      <c r="U13" t="s">
-        <v>785</v>
       </c>
       <c r="V13" t="s">
         <v>51</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="5">
         <v>36135</v>
       </c>
       <c r="Y13" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD13" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD13" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -4405,24 +4442,24 @@
         <v>41</v>
       </c>
       <c r="R14" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S14" t="s">
+        <v>789</v>
+      </c>
+      <c r="U14" t="s">
         <v>790</v>
-      </c>
-      <c r="U14" t="s">
-        <v>791</v>
       </c>
       <c r="V14" t="s">
         <v>43</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="5">
         <v>32848</v>
       </c>
       <c r="Y14" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD14" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="AD14" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE14" t="s">
@@ -4477,22 +4514,22 @@
         <v>539</v>
       </c>
       <c r="S15" t="s">
+        <v>791</v>
+      </c>
+      <c r="U15" t="s">
         <v>792</v>
-      </c>
-      <c r="U15" t="s">
-        <v>793</v>
       </c>
       <c r="V15" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="6">
+      <c r="W15" s="5">
         <v>34993</v>
       </c>
-      <c r="AD15" s="6" t="s">
+      <c r="AD15" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE15" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -4522,7 +4559,7 @@
         <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E16" t="s">
         <v>708</v>
@@ -4531,7 +4568,7 @@
         <v>83635935</v>
       </c>
       <c r="J16" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="L16">
         <v>792411</v>
@@ -4543,22 +4580,22 @@
         <v>540</v>
       </c>
       <c r="S16" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="V16" t="s">
         <v>43</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="5">
         <v>38578</v>
       </c>
       <c r="Y16" t="s">
-        <v>989</v>
-      </c>
-      <c r="AD16" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD16" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE16" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -4568,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="AH16" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AI16" t="s">
         <v>428</v>
@@ -4606,24 +4643,24 @@
         <v>41</v>
       </c>
       <c r="R17" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S17" t="s">
+        <v>798</v>
+      </c>
+      <c r="U17" t="s">
         <v>799</v>
-      </c>
-      <c r="U17" t="s">
-        <v>800</v>
       </c>
       <c r="V17" t="s">
         <v>43</v>
       </c>
-      <c r="W17" s="6">
+      <c r="W17" s="5">
         <v>31040</v>
       </c>
       <c r="Y17" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD17" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="AD17" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE17" t="s">
@@ -4681,18 +4718,18 @@
         <v>540</v>
       </c>
       <c r="S18" t="s">
+        <v>800</v>
+      </c>
+      <c r="U18" t="s">
         <v>801</v>
-      </c>
-      <c r="U18" t="s">
-        <v>802</v>
       </c>
       <c r="V18" t="s">
         <v>43</v>
       </c>
-      <c r="W18" s="6">
+      <c r="W18" s="5">
         <v>25985</v>
       </c>
-      <c r="AD18" s="6" t="s">
+      <c r="AD18" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE18" t="s">
@@ -4750,18 +4787,18 @@
         <v>540</v>
       </c>
       <c r="S19" t="s">
+        <v>804</v>
+      </c>
+      <c r="U19" t="s">
         <v>805</v>
-      </c>
-      <c r="U19" t="s">
-        <v>806</v>
       </c>
       <c r="V19" t="s">
         <v>51</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="5">
         <v>27202</v>
       </c>
-      <c r="AD19" s="6" t="s">
+      <c r="AD19" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE19" t="s">
@@ -4813,25 +4850,25 @@
         <v>41</v>
       </c>
       <c r="R20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S20" t="s">
+        <v>806</v>
+      </c>
+      <c r="U20" t="s">
         <v>807</v>
-      </c>
-      <c r="U20" t="s">
-        <v>808</v>
       </c>
       <c r="V20" t="s">
         <v>43</v>
       </c>
-      <c r="W20" s="6">
+      <c r="W20" s="5">
         <v>35953</v>
       </c>
-      <c r="AD20" s="6" t="s">
+      <c r="AD20" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE20" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -4882,18 +4919,18 @@
         <v>539</v>
       </c>
       <c r="S21" t="s">
+        <v>808</v>
+      </c>
+      <c r="U21" t="s">
         <v>809</v>
-      </c>
-      <c r="U21" t="s">
-        <v>810</v>
       </c>
       <c r="V21" t="s">
         <v>43</v>
       </c>
-      <c r="W21" s="6">
+      <c r="W21" s="5">
         <v>30892</v>
       </c>
-      <c r="AD21" s="6" t="s">
+      <c r="AD21" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE21" t="s">
@@ -4945,28 +4982,28 @@
         <v>41</v>
       </c>
       <c r="R22" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="S22" t="s">
+        <v>810</v>
+      </c>
+      <c r="U22" t="s">
         <v>811</v>
-      </c>
-      <c r="U22" t="s">
-        <v>812</v>
       </c>
       <c r="V22" t="s">
         <v>43</v>
       </c>
-      <c r="W22" s="6">
+      <c r="W22" s="5">
         <v>33703</v>
       </c>
       <c r="Y22" t="s">
-        <v>988</v>
-      </c>
-      <c r="AD22" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="AD22" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE22" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -5020,18 +5057,18 @@
         <v>539</v>
       </c>
       <c r="S23" t="s">
+        <v>812</v>
+      </c>
+      <c r="U23" t="s">
         <v>813</v>
-      </c>
-      <c r="U23" t="s">
-        <v>814</v>
       </c>
       <c r="V23" t="s">
         <v>51</v>
       </c>
-      <c r="W23" s="6">
+      <c r="W23" s="5">
         <v>31076</v>
       </c>
-      <c r="AD23" s="6" t="s">
+      <c r="AD23" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE23" t="s">
@@ -5073,8 +5110,8 @@
       <c r="F24" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>980</v>
+      <c r="G24" s="6" t="s">
+        <v>979</v>
       </c>
       <c r="J24" t="s">
         <v>40</v>
@@ -5089,15 +5126,15 @@
         <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="V24" t="s">
         <v>43</v>
       </c>
-      <c r="W24" s="6">
+      <c r="W24" s="5">
         <v>30346</v>
       </c>
-      <c r="AD24" s="6" t="s">
+      <c r="AD24" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE24" t="s">
@@ -5158,15 +5195,15 @@
         <v>567</v>
       </c>
       <c r="U25" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="V25" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="6">
+      <c r="W25" s="5">
         <v>26089</v>
       </c>
-      <c r="AD25" s="6" t="s">
+      <c r="AD25" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE25" t="s">
@@ -5205,8 +5242,8 @@
       <c r="E26" t="s">
         <v>698</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>981</v>
+      <c r="G26" s="6" t="s">
+        <v>980</v>
       </c>
       <c r="J26" t="s">
         <v>40</v>
@@ -5221,25 +5258,25 @@
         <v>539</v>
       </c>
       <c r="S26" t="s">
+        <v>823</v>
+      </c>
+      <c r="U26" t="s">
         <v>824</v>
-      </c>
-      <c r="U26" t="s">
-        <v>825</v>
       </c>
       <c r="V26" t="s">
         <v>43</v>
       </c>
-      <c r="W26" s="6">
+      <c r="W26" s="5">
         <v>37073</v>
       </c>
       <c r="Y26" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD26" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD26" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE26" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -5249,7 +5286,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AI26" t="s">
         <v>428</v>
@@ -5290,22 +5327,22 @@
         <v>539</v>
       </c>
       <c r="S27" t="s">
+        <v>825</v>
+      </c>
+      <c r="U27" t="s">
         <v>826</v>
-      </c>
-      <c r="U27" t="s">
-        <v>827</v>
       </c>
       <c r="V27" t="s">
         <v>51</v>
       </c>
-      <c r="W27" s="6">
+      <c r="W27" s="5">
         <v>22230</v>
       </c>
-      <c r="AD27" s="6" t="s">
+      <c r="AD27" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE27" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -5359,18 +5396,18 @@
         <v>540</v>
       </c>
       <c r="S28" t="s">
+        <v>827</v>
+      </c>
+      <c r="U28" t="s">
         <v>828</v>
-      </c>
-      <c r="U28" t="s">
-        <v>829</v>
       </c>
       <c r="V28" t="s">
         <v>43</v>
       </c>
-      <c r="W28" s="6">
+      <c r="W28" s="5">
         <v>26201</v>
       </c>
-      <c r="AD28" s="6" t="s">
+      <c r="AD28" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE28" t="s">
@@ -5428,25 +5465,25 @@
         <v>540</v>
       </c>
       <c r="S29" t="s">
+        <v>829</v>
+      </c>
+      <c r="U29" t="s">
         <v>830</v>
-      </c>
-      <c r="U29" t="s">
-        <v>831</v>
       </c>
       <c r="V29" t="s">
         <v>51</v>
       </c>
-      <c r="W29" s="6">
+      <c r="W29" s="5">
         <v>34558</v>
       </c>
       <c r="Y29" t="s">
-        <v>989</v>
-      </c>
-      <c r="AD29" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD29" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE29" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -5476,7 +5513,7 @@
         <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E30" t="s">
         <v>728</v>
@@ -5500,21 +5537,21 @@
         <v>539</v>
       </c>
       <c r="S30" t="s">
+        <v>832</v>
+      </c>
+      <c r="U30" t="s">
         <v>833</v>
-      </c>
-      <c r="U30" t="s">
-        <v>834</v>
       </c>
       <c r="V30" t="s">
         <v>51</v>
       </c>
-      <c r="W30" s="6">
+      <c r="W30" s="5">
         <v>35727</v>
       </c>
       <c r="Y30" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD30" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD30" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE30" t="s">
@@ -5572,21 +5609,21 @@
         <v>540</v>
       </c>
       <c r="S31" t="s">
+        <v>834</v>
+      </c>
+      <c r="U31" t="s">
         <v>835</v>
-      </c>
-      <c r="U31" t="s">
-        <v>836</v>
       </c>
       <c r="V31" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="6">
+      <c r="W31" s="5">
         <v>33426</v>
       </c>
       <c r="Y31" t="s">
-        <v>989</v>
-      </c>
-      <c r="AD31" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD31" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE31" t="s">
@@ -5644,25 +5681,25 @@
         <v>539</v>
       </c>
       <c r="S32" t="s">
+        <v>838</v>
+      </c>
+      <c r="U32" t="s">
         <v>839</v>
-      </c>
-      <c r="U32" t="s">
-        <v>840</v>
       </c>
       <c r="V32" t="s">
         <v>43</v>
       </c>
-      <c r="W32" s="6">
+      <c r="W32" s="5">
         <v>34700</v>
       </c>
       <c r="Y32" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD32" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD32" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE32" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -5716,18 +5753,18 @@
         <v>540</v>
       </c>
       <c r="S33" t="s">
+        <v>842</v>
+      </c>
+      <c r="U33" t="s">
         <v>843</v>
-      </c>
-      <c r="U33" t="s">
-        <v>844</v>
       </c>
       <c r="V33" t="s">
         <v>51</v>
       </c>
-      <c r="W33" s="6">
+      <c r="W33" s="5">
         <v>30052</v>
       </c>
-      <c r="AD33" s="6" t="s">
+      <c r="AD33" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE33" t="s">
@@ -5750,7 +5787,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>719</v>
       </c>
@@ -5785,18 +5822,18 @@
         <v>540</v>
       </c>
       <c r="S34" t="s">
+        <v>844</v>
+      </c>
+      <c r="U34" t="s">
         <v>845</v>
-      </c>
-      <c r="U34" t="s">
-        <v>846</v>
       </c>
       <c r="V34" t="s">
         <v>51</v>
       </c>
-      <c r="W34" s="6">
+      <c r="W34" s="5">
         <v>25611</v>
       </c>
-      <c r="AD34" s="6" t="s">
+      <c r="AD34" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE34" t="s">
@@ -5854,7 +5891,7 @@
         <v>540</v>
       </c>
       <c r="S35" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U35" t="s">
         <v>577</v>
@@ -5862,10 +5899,10 @@
       <c r="V35" t="s">
         <v>43</v>
       </c>
-      <c r="W35" s="6">
+      <c r="W35" s="5">
         <v>26419</v>
       </c>
-      <c r="AD35" s="6" t="s">
+      <c r="AD35" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE35" t="s">
@@ -5923,7 +5960,7 @@
         <v>540</v>
       </c>
       <c r="S36" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="U36" t="s">
         <v>580</v>
@@ -5931,10 +5968,10 @@
       <c r="V36" t="s">
         <v>43</v>
       </c>
-      <c r="W36" s="6">
+      <c r="W36" s="5">
         <v>26419</v>
       </c>
-      <c r="AD36" s="6" t="s">
+      <c r="AD36" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE36" t="s">
@@ -5968,19 +6005,19 @@
         <v>209</v>
       </c>
       <c r="D37" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E37" t="s">
         <v>691</v>
       </c>
       <c r="F37" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G37">
         <v>97348586</v>
       </c>
       <c r="J37" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L37">
         <v>759283</v>
@@ -5992,21 +6029,21 @@
         <v>540</v>
       </c>
       <c r="S37" t="s">
+        <v>853</v>
+      </c>
+      <c r="U37" t="s">
         <v>854</v>
-      </c>
-      <c r="U37" t="s">
-        <v>855</v>
       </c>
       <c r="V37" t="s">
         <v>43</v>
       </c>
-      <c r="W37" s="6">
+      <c r="W37" s="5">
         <v>25964</v>
       </c>
       <c r="Y37" t="s">
-        <v>989</v>
-      </c>
-      <c r="AD37" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD37" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE37" t="s">
@@ -6020,7 +6057,7 @@
         <v>36</v>
       </c>
       <c r="AH37" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AI37" t="s">
         <v>428</v>
@@ -6064,22 +6101,22 @@
         <v>539</v>
       </c>
       <c r="S38" t="s">
+        <v>855</v>
+      </c>
+      <c r="U38" t="s">
         <v>856</v>
-      </c>
-      <c r="U38" t="s">
-        <v>857</v>
       </c>
       <c r="V38" t="s">
         <v>51</v>
       </c>
-      <c r="W38" s="6">
+      <c r="W38" s="5">
         <v>35985</v>
       </c>
-      <c r="AD38" s="6" t="s">
+      <c r="AD38" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE38" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -6130,18 +6167,18 @@
         <v>540</v>
       </c>
       <c r="S39" t="s">
+        <v>857</v>
+      </c>
+      <c r="U39" t="s">
         <v>858</v>
-      </c>
-      <c r="U39" t="s">
-        <v>859</v>
       </c>
       <c r="V39" t="s">
         <v>43</v>
       </c>
-      <c r="W39" s="6">
+      <c r="W39" s="5">
         <v>15883</v>
       </c>
-      <c r="AD39" s="6" t="s">
+      <c r="AD39" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE39" t="s">
@@ -6193,21 +6230,21 @@
         <v>41</v>
       </c>
       <c r="R40" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S40" t="s">
+        <v>859</v>
+      </c>
+      <c r="U40" t="s">
         <v>860</v>
-      </c>
-      <c r="U40" t="s">
-        <v>861</v>
       </c>
       <c r="V40" t="s">
         <v>43</v>
       </c>
-      <c r="W40" s="6">
+      <c r="W40" s="5">
         <v>27827</v>
       </c>
-      <c r="AD40" s="6" t="s">
+      <c r="AD40" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE40" t="s">
@@ -6259,21 +6296,21 @@
         <v>41</v>
       </c>
       <c r="R41" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S41" t="s">
+        <v>861</v>
+      </c>
+      <c r="U41" t="s">
         <v>862</v>
-      </c>
-      <c r="U41" t="s">
-        <v>863</v>
       </c>
       <c r="V41" t="s">
         <v>43</v>
       </c>
-      <c r="W41" s="6">
+      <c r="W41" s="5">
         <v>29446</v>
       </c>
-      <c r="AD41" s="6" t="s">
+      <c r="AD41" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE41" t="s">
@@ -6331,18 +6368,18 @@
         <v>539</v>
       </c>
       <c r="S42" t="s">
+        <v>863</v>
+      </c>
+      <c r="U42" t="s">
         <v>864</v>
-      </c>
-      <c r="U42" t="s">
-        <v>865</v>
       </c>
       <c r="V42" t="s">
         <v>43</v>
       </c>
-      <c r="W42" s="6">
+      <c r="W42" s="5">
         <v>29694</v>
       </c>
-      <c r="AD42" s="6" t="s">
+      <c r="AD42" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE42" t="s">
@@ -6397,18 +6434,18 @@
         <v>539</v>
       </c>
       <c r="S43" t="s">
+        <v>865</v>
+      </c>
+      <c r="U43" t="s">
         <v>866</v>
-      </c>
-      <c r="U43" t="s">
-        <v>867</v>
       </c>
       <c r="V43" t="s">
         <v>43</v>
       </c>
-      <c r="W43" s="6">
+      <c r="W43" s="5">
         <v>28030</v>
       </c>
-      <c r="AD43" s="6" t="s">
+      <c r="AD43" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE43" t="s">
@@ -6466,25 +6503,25 @@
         <v>693</v>
       </c>
       <c r="S44" t="s">
+        <v>867</v>
+      </c>
+      <c r="U44" t="s">
         <v>868</v>
-      </c>
-      <c r="U44" t="s">
-        <v>869</v>
       </c>
       <c r="V44" t="s">
         <v>51</v>
       </c>
-      <c r="W44" s="6">
+      <c r="W44" s="5">
         <v>33383</v>
       </c>
       <c r="AC44" t="s">
         <v>291</v>
       </c>
-      <c r="AD44" s="6">
+      <c r="AD44" s="5">
         <v>46621</v>
       </c>
       <c r="AE44" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -6535,24 +6572,24 @@
         <v>41</v>
       </c>
       <c r="R45" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S45" t="s">
+        <v>869</v>
+      </c>
+      <c r="U45" t="s">
         <v>870</v>
-      </c>
-      <c r="U45" t="s">
-        <v>871</v>
       </c>
       <c r="V45" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="6">
+      <c r="W45" s="5">
         <v>25338</v>
       </c>
       <c r="AC45" t="s">
         <v>352</v>
       </c>
-      <c r="AD45" s="6">
+      <c r="AD45" s="5">
         <v>46611</v>
       </c>
       <c r="AE45" t="s">
@@ -6572,7 +6609,7 @@
         <v>354</v>
       </c>
       <c r="AJ45" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.2">
@@ -6601,24 +6638,24 @@
         <v>41</v>
       </c>
       <c r="R46" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="S46" t="s">
+        <v>871</v>
+      </c>
+      <c r="U46" t="s">
         <v>872</v>
-      </c>
-      <c r="U46" t="s">
-        <v>873</v>
       </c>
       <c r="V46" t="s">
         <v>43</v>
       </c>
-      <c r="W46" s="6">
+      <c r="W46" s="5">
         <v>30980</v>
       </c>
       <c r="Y46" t="s">
-        <v>988</v>
-      </c>
-      <c r="AD46" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="AD46" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE46" t="s">
@@ -6673,21 +6710,21 @@
         <v>539</v>
       </c>
       <c r="S47" t="s">
+        <v>873</v>
+      </c>
+      <c r="U47" t="s">
         <v>874</v>
-      </c>
-      <c r="U47" t="s">
-        <v>875</v>
       </c>
       <c r="V47" t="s">
         <v>43</v>
       </c>
-      <c r="W47" s="6">
+      <c r="W47" s="5">
         <v>35763</v>
       </c>
       <c r="Y47" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD47" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD47" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE47" t="s">
@@ -6742,18 +6779,18 @@
         <v>539</v>
       </c>
       <c r="S48" t="s">
+        <v>875</v>
+      </c>
+      <c r="U48" t="s">
         <v>876</v>
-      </c>
-      <c r="U48" t="s">
-        <v>877</v>
       </c>
       <c r="V48" t="s">
         <v>43</v>
       </c>
-      <c r="W48" s="6">
+      <c r="W48" s="5">
         <v>30842</v>
       </c>
-      <c r="AD48" s="6" t="s">
+      <c r="AD48" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE48" t="s">
@@ -6808,18 +6845,18 @@
         <v>539</v>
       </c>
       <c r="S49" t="s">
+        <v>877</v>
+      </c>
+      <c r="U49" t="s">
         <v>878</v>
-      </c>
-      <c r="U49" t="s">
-        <v>879</v>
       </c>
       <c r="V49" t="s">
         <v>43</v>
       </c>
-      <c r="W49" s="6">
+      <c r="W49" s="5">
         <v>22940</v>
       </c>
-      <c r="AD49" s="6" t="s">
+      <c r="AD49" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE49" t="s">
@@ -6874,25 +6911,25 @@
         <v>539</v>
       </c>
       <c r="S50" t="s">
+        <v>879</v>
+      </c>
+      <c r="U50" t="s">
         <v>880</v>
-      </c>
-      <c r="U50" t="s">
-        <v>881</v>
       </c>
       <c r="V50" t="s">
         <v>43</v>
       </c>
-      <c r="W50" s="6">
+      <c r="W50" s="5">
         <v>38210</v>
       </c>
       <c r="Y50" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD50" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD50" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE50" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -6943,21 +6980,21 @@
         <v>539</v>
       </c>
       <c r="S51" t="s">
+        <v>881</v>
+      </c>
+      <c r="U51" t="s">
         <v>882</v>
-      </c>
-      <c r="U51" t="s">
-        <v>883</v>
       </c>
       <c r="V51" t="s">
         <v>43</v>
       </c>
-      <c r="W51" s="6">
+      <c r="W51" s="5">
         <v>34779</v>
       </c>
       <c r="Y51" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD51" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD51" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE51" t="s">
@@ -7015,7 +7052,7 @@
         <v>539</v>
       </c>
       <c r="S52" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="U52">
         <v>55295168</v>
@@ -7023,13 +7060,13 @@
       <c r="V52" t="s">
         <v>43</v>
       </c>
-      <c r="W52" s="6">
+      <c r="W52" s="5">
         <v>36247</v>
       </c>
       <c r="Y52" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD52" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD52" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE52" t="s">
@@ -7084,25 +7121,25 @@
         <v>539</v>
       </c>
       <c r="S53" t="s">
+        <v>884</v>
+      </c>
+      <c r="U53" t="s">
         <v>885</v>
-      </c>
-      <c r="U53" t="s">
-        <v>886</v>
       </c>
       <c r="V53" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="6">
+      <c r="W53" s="5">
         <v>33863</v>
       </c>
       <c r="Y53" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD53" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD53" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE53" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -7150,28 +7187,28 @@
         <v>41</v>
       </c>
       <c r="R54" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S54" t="s">
+        <v>886</v>
+      </c>
+      <c r="U54" t="s">
         <v>887</v>
-      </c>
-      <c r="U54" t="s">
-        <v>888</v>
       </c>
       <c r="V54" t="s">
         <v>43</v>
       </c>
-      <c r="W54" s="6">
+      <c r="W54" s="5">
         <v>34448</v>
       </c>
       <c r="Y54" t="s">
-        <v>990</v>
-      </c>
-      <c r="AD54" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD54" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE54" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -7222,25 +7259,25 @@
         <v>539</v>
       </c>
       <c r="S55" t="s">
+        <v>888</v>
+      </c>
+      <c r="U55" t="s">
         <v>889</v>
-      </c>
-      <c r="U55" t="s">
-        <v>890</v>
       </c>
       <c r="V55" t="s">
         <v>43</v>
       </c>
-      <c r="W55" s="6">
+      <c r="W55" s="5">
         <v>37119</v>
       </c>
       <c r="Y55" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD55" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD55" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE55" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -7291,18 +7328,18 @@
         <v>539</v>
       </c>
       <c r="S56" t="s">
+        <v>890</v>
+      </c>
+      <c r="U56" t="s">
         <v>891</v>
-      </c>
-      <c r="U56" t="s">
-        <v>892</v>
       </c>
       <c r="V56" t="s">
         <v>43</v>
       </c>
-      <c r="W56" s="6">
+      <c r="W56" s="5">
         <v>31382</v>
       </c>
-      <c r="AD56" s="6" t="s">
+      <c r="AD56" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE56" t="s">
@@ -7360,25 +7397,25 @@
         <v>539</v>
       </c>
       <c r="S57" t="s">
+        <v>892</v>
+      </c>
+      <c r="U57" t="s">
         <v>893</v>
-      </c>
-      <c r="U57" t="s">
-        <v>894</v>
       </c>
       <c r="V57" t="s">
         <v>43</v>
       </c>
-      <c r="W57" s="6">
+      <c r="W57" s="5">
         <v>34850</v>
       </c>
       <c r="Y57" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD57" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD57" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE57" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -7429,21 +7466,21 @@
         <v>539</v>
       </c>
       <c r="S58" t="s">
+        <v>894</v>
+      </c>
+      <c r="U58" t="s">
         <v>895</v>
-      </c>
-      <c r="U58" t="s">
-        <v>896</v>
       </c>
       <c r="V58" t="s">
         <v>43</v>
       </c>
-      <c r="W58" s="6">
+      <c r="W58" s="5">
         <v>36487</v>
       </c>
       <c r="Y58" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD58" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD58" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE58" t="s">
@@ -7495,18 +7532,18 @@
         <v>540</v>
       </c>
       <c r="S59" t="s">
+        <v>896</v>
+      </c>
+      <c r="U59" t="s">
         <v>897</v>
-      </c>
-      <c r="U59" t="s">
-        <v>898</v>
       </c>
       <c r="V59" t="s">
         <v>43</v>
       </c>
-      <c r="W59" s="6">
+      <c r="W59" s="5">
         <v>20208</v>
       </c>
-      <c r="AD59" s="6" t="s">
+      <c r="AD59" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE59" t="s">
@@ -7564,18 +7601,18 @@
         <v>540</v>
       </c>
       <c r="S60" t="s">
+        <v>898</v>
+      </c>
+      <c r="U60" t="s">
         <v>899</v>
-      </c>
-      <c r="U60" t="s">
-        <v>900</v>
       </c>
       <c r="V60" t="s">
         <v>51</v>
       </c>
-      <c r="W60" s="6">
+      <c r="W60" s="5">
         <v>26635</v>
       </c>
-      <c r="AD60" s="6" t="s">
+      <c r="AD60" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE60" t="s">
@@ -7633,21 +7670,21 @@
         <v>539</v>
       </c>
       <c r="S61" t="s">
+        <v>900</v>
+      </c>
+      <c r="U61" t="s">
         <v>901</v>
-      </c>
-      <c r="U61" t="s">
-        <v>902</v>
       </c>
       <c r="V61" t="s">
         <v>51</v>
       </c>
-      <c r="W61" s="6">
+      <c r="W61" s="5">
         <v>30837</v>
       </c>
       <c r="Y61" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD61" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD61" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE61" t="s">
@@ -7693,7 +7730,7 @@
         <v>90365865</v>
       </c>
       <c r="J62" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L62">
         <v>689529</v>
@@ -7705,28 +7742,28 @@
         <v>60</v>
       </c>
       <c r="S62" t="s">
+        <v>905</v>
+      </c>
+      <c r="U62" t="s">
         <v>906</v>
-      </c>
-      <c r="U62" t="s">
-        <v>907</v>
       </c>
       <c r="V62" t="s">
         <v>43</v>
       </c>
-      <c r="W62" s="6">
+      <c r="W62" s="5">
         <v>35180</v>
       </c>
       <c r="Y62" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AC62" t="s">
         <v>383</v>
       </c>
-      <c r="AD62" s="6">
+      <c r="AD62" s="5">
         <v>46180</v>
       </c>
       <c r="AE62" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -7780,25 +7817,25 @@
         <v>539</v>
       </c>
       <c r="S63" t="s">
+        <v>907</v>
+      </c>
+      <c r="U63" t="s">
         <v>908</v>
-      </c>
-      <c r="U63" t="s">
-        <v>909</v>
       </c>
       <c r="V63" t="s">
         <v>51</v>
       </c>
-      <c r="W63" s="6">
+      <c r="W63" s="5">
         <v>33988</v>
       </c>
       <c r="Y63" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD63" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD63" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE63" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -7852,22 +7889,22 @@
         <v>539</v>
       </c>
       <c r="S64" t="s">
+        <v>909</v>
+      </c>
+      <c r="U64" t="s">
         <v>910</v>
-      </c>
-      <c r="U64" t="s">
-        <v>911</v>
       </c>
       <c r="V64" t="s">
         <v>51</v>
       </c>
-      <c r="W64" s="6">
+      <c r="W64" s="5">
         <v>29060</v>
       </c>
-      <c r="AD64" s="6" t="s">
+      <c r="AD64" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE64" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -7918,25 +7955,25 @@
         <v>539</v>
       </c>
       <c r="S65" t="s">
+        <v>911</v>
+      </c>
+      <c r="U65" t="s">
         <v>912</v>
-      </c>
-      <c r="U65" t="s">
-        <v>913</v>
       </c>
       <c r="V65" t="s">
         <v>43</v>
       </c>
-      <c r="W65" s="6">
+      <c r="W65" s="5">
         <v>34668</v>
       </c>
       <c r="Y65" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD65" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD65" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE65" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -7946,7 +7983,7 @@
         <v>21</v>
       </c>
       <c r="AH65" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AI65" t="s">
         <v>428</v>
@@ -7984,24 +8021,24 @@
         <v>41</v>
       </c>
       <c r="R66" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S66" t="s">
+        <v>913</v>
+      </c>
+      <c r="U66" t="s">
         <v>914</v>
-      </c>
-      <c r="U66" t="s">
-        <v>915</v>
       </c>
       <c r="V66" t="s">
         <v>43</v>
       </c>
-      <c r="W66" s="6">
+      <c r="W66" s="5">
         <v>30803</v>
       </c>
       <c r="Y66" t="s">
-        <v>990</v>
-      </c>
-      <c r="AD66" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD66" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE66" t="s">
@@ -8053,28 +8090,28 @@
         <v>41</v>
       </c>
       <c r="R67" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S67" t="s">
+        <v>916</v>
+      </c>
+      <c r="U67" t="s">
         <v>917</v>
-      </c>
-      <c r="U67" t="s">
-        <v>918</v>
       </c>
       <c r="V67" t="s">
         <v>43</v>
       </c>
-      <c r="W67" s="6">
+      <c r="W67" s="5">
         <v>36823</v>
       </c>
       <c r="Y67" t="s">
-        <v>990</v>
-      </c>
-      <c r="AD67" s="6" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD67" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE67" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -8084,7 +8121,7 @@
         <v>22</v>
       </c>
       <c r="AH67" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AI67" t="s">
         <v>428</v>
@@ -8122,28 +8159,28 @@
         <v>41</v>
       </c>
       <c r="R68" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="S68" t="s">
+        <v>918</v>
+      </c>
+      <c r="U68" t="s">
         <v>919</v>
-      </c>
-      <c r="U68" t="s">
-        <v>920</v>
       </c>
       <c r="V68" t="s">
         <v>43</v>
       </c>
-      <c r="W68" s="6">
+      <c r="W68" s="5">
         <v>36448</v>
       </c>
       <c r="Y68" t="s">
-        <v>988</v>
-      </c>
-      <c r="AD68" s="6" t="s">
+        <v>987</v>
+      </c>
+      <c r="AD68" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE68" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -8202,16 +8239,16 @@
         <v>539</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="6">
+      <c r="W69" s="5">
         <v>28882</v>
       </c>
       <c r="X69" s="2"/>
@@ -8220,7 +8257,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
-      <c r="AD69" s="6" t="s">
+      <c r="AD69" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE69" t="s">
@@ -8278,22 +8315,22 @@
         <v>539</v>
       </c>
       <c r="S70" t="s">
+        <v>924</v>
+      </c>
+      <c r="U70" t="s">
         <v>925</v>
-      </c>
-      <c r="U70" t="s">
-        <v>926</v>
       </c>
       <c r="V70" t="s">
         <v>51</v>
       </c>
-      <c r="W70" s="6">
+      <c r="W70" s="5">
         <v>31138</v>
       </c>
-      <c r="AD70" s="6" t="s">
+      <c r="AD70" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE70" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AH70" t="s">
         <v>345</v>
@@ -8337,21 +8374,21 @@
         <v>539</v>
       </c>
       <c r="S71" t="s">
+        <v>926</v>
+      </c>
+      <c r="U71" t="s">
         <v>927</v>
-      </c>
-      <c r="U71" t="s">
-        <v>928</v>
       </c>
       <c r="V71" t="s">
         <v>51</v>
       </c>
-      <c r="W71" s="6">
+      <c r="W71" s="5">
         <v>25818</v>
       </c>
       <c r="Y71" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD71" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD71" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE71" t="s">
@@ -8402,28 +8439,28 @@
         <v>539</v>
       </c>
       <c r="S72" t="s">
+        <v>928</v>
+      </c>
+      <c r="U72" t="s">
         <v>929</v>
-      </c>
-      <c r="U72" t="s">
-        <v>930</v>
       </c>
       <c r="V72" t="s">
         <v>51</v>
       </c>
-      <c r="W72" s="6">
+      <c r="W72" s="5">
         <v>34471</v>
       </c>
       <c r="Y72" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AC72" t="s">
         <v>79</v>
       </c>
-      <c r="AD72" s="6">
+      <c r="AD72" s="5">
         <v>46437</v>
       </c>
       <c r="AE72" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AH72" t="s">
         <v>80</v>
@@ -8470,21 +8507,21 @@
         <v>539</v>
       </c>
       <c r="S73" t="s">
+        <v>930</v>
+      </c>
+      <c r="U73" t="s">
         <v>931</v>
-      </c>
-      <c r="U73" t="s">
-        <v>932</v>
       </c>
       <c r="V73" t="s">
         <v>43</v>
       </c>
-      <c r="W73" s="6">
+      <c r="W73" s="5">
         <v>25604</v>
       </c>
       <c r="AC73" t="s">
         <v>358</v>
       </c>
-      <c r="AD73" s="6">
+      <c r="AD73" s="5">
         <v>45702</v>
       </c>
       <c r="AE73" t="s">
@@ -8535,25 +8572,25 @@
         <v>539</v>
       </c>
       <c r="S74" t="s">
+        <v>932</v>
+      </c>
+      <c r="U74" t="s">
         <v>933</v>
-      </c>
-      <c r="U74" t="s">
-        <v>934</v>
       </c>
       <c r="V74" t="s">
         <v>51</v>
       </c>
-      <c r="W74" s="6">
+      <c r="W74" s="5">
         <v>36414</v>
       </c>
       <c r="Y74" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD74" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD74" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE74" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AH74" t="s">
         <v>131</v>
@@ -8600,18 +8637,18 @@
         <v>540</v>
       </c>
       <c r="S75" t="s">
+        <v>934</v>
+      </c>
+      <c r="U75" t="s">
         <v>935</v>
-      </c>
-      <c r="U75" t="s">
-        <v>936</v>
       </c>
       <c r="V75" t="s">
         <v>43</v>
       </c>
-      <c r="W75" s="6">
+      <c r="W75" s="5">
         <v>20723</v>
       </c>
-      <c r="AD75" s="6" t="s">
+      <c r="AD75" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE75" t="s">
@@ -8659,25 +8696,25 @@
         <v>539</v>
       </c>
       <c r="S76" t="s">
+        <v>936</v>
+      </c>
+      <c r="U76" t="s">
         <v>937</v>
-      </c>
-      <c r="U76" t="s">
-        <v>938</v>
       </c>
       <c r="V76" t="s">
         <v>43</v>
       </c>
-      <c r="W76" s="6">
+      <c r="W76" s="5">
         <v>30823</v>
       </c>
       <c r="Y76" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD76" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD76" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE76" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AH76" t="s">
         <v>365</v>
@@ -8724,18 +8761,18 @@
         <v>539</v>
       </c>
       <c r="S77" t="s">
+        <v>938</v>
+      </c>
+      <c r="U77" t="s">
         <v>939</v>
-      </c>
-      <c r="U77" t="s">
-        <v>940</v>
       </c>
       <c r="V77" t="s">
         <v>51</v>
       </c>
-      <c r="W77" s="6">
+      <c r="W77" s="5">
         <v>32192</v>
       </c>
-      <c r="AD77" s="6" t="s">
+      <c r="AD77" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE77" t="s">
@@ -8786,22 +8823,22 @@
         <v>539</v>
       </c>
       <c r="S78" t="s">
+        <v>940</v>
+      </c>
+      <c r="U78" t="s">
         <v>941</v>
-      </c>
-      <c r="U78" t="s">
-        <v>942</v>
       </c>
       <c r="V78" t="s">
         <v>51</v>
       </c>
-      <c r="W78" s="6">
+      <c r="W78" s="5">
         <v>25463</v>
       </c>
-      <c r="AD78" s="6" t="s">
+      <c r="AD78" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE78" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AH78" t="s">
         <v>167</v>
@@ -8850,19 +8887,19 @@
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S79" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="T79"/>
       <c r="U79" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="V79" t="s">
         <v>43</v>
       </c>
-      <c r="W79" s="6">
+      <c r="W79" s="5">
         <v>32959</v>
       </c>
       <c r="X79"/>
@@ -8873,7 +8910,7 @@
       <c r="AC79" t="s">
         <v>369</v>
       </c>
-      <c r="AD79" s="6">
+      <c r="AD79" s="5">
         <v>45386</v>
       </c>
       <c r="AE79" t="s">
@@ -8920,21 +8957,21 @@
         <v>41</v>
       </c>
       <c r="R80" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="S80" t="s">
+        <v>944</v>
+      </c>
+      <c r="U80" t="s">
         <v>945</v>
-      </c>
-      <c r="U80" t="s">
-        <v>946</v>
       </c>
       <c r="V80" t="s">
         <v>43</v>
       </c>
-      <c r="W80" s="6">
+      <c r="W80" s="5">
         <v>35372</v>
       </c>
-      <c r="AD80" s="6" t="s">
+      <c r="AD80" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE80" t="s">
@@ -8982,18 +9019,18 @@
         <v>539</v>
       </c>
       <c r="S81" t="s">
+        <v>948</v>
+      </c>
+      <c r="U81" t="s">
         <v>949</v>
-      </c>
-      <c r="U81" t="s">
-        <v>950</v>
       </c>
       <c r="V81" t="s">
         <v>43</v>
       </c>
-      <c r="W81" s="6">
+      <c r="W81" s="5">
         <v>30438</v>
       </c>
-      <c r="AD81" s="6" t="s">
+      <c r="AD81" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE81" t="s">
@@ -9044,18 +9081,18 @@
         <v>539</v>
       </c>
       <c r="S82" t="s">
+        <v>950</v>
+      </c>
+      <c r="U82" t="s">
         <v>951</v>
-      </c>
-      <c r="U82" t="s">
-        <v>952</v>
       </c>
       <c r="V82" t="s">
         <v>43</v>
       </c>
-      <c r="W82" s="6">
+      <c r="W82" s="5">
         <v>31006</v>
       </c>
-      <c r="AD82" s="6" t="s">
+      <c r="AD82" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE82" t="s">
@@ -9106,25 +9143,25 @@
         <v>539</v>
       </c>
       <c r="S83" t="s">
+        <v>952</v>
+      </c>
+      <c r="U83" t="s">
         <v>953</v>
-      </c>
-      <c r="U83" t="s">
-        <v>954</v>
       </c>
       <c r="V83" t="s">
         <v>51</v>
       </c>
-      <c r="W83" s="6">
+      <c r="W83" s="5">
         <v>36018</v>
       </c>
       <c r="Y83" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD83" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD83" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE83" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AH83" t="s">
         <v>390</v>
@@ -9168,22 +9205,22 @@
         <v>539</v>
       </c>
       <c r="S84" t="s">
+        <v>954</v>
+      </c>
+      <c r="U84" t="s">
         <v>955</v>
-      </c>
-      <c r="U84" t="s">
-        <v>956</v>
       </c>
       <c r="V84" t="s">
         <v>43</v>
       </c>
-      <c r="W84" s="6">
+      <c r="W84" s="5">
         <v>33619</v>
       </c>
-      <c r="AD84" s="6" t="s">
+      <c r="AD84" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE84" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AH84" t="s">
         <v>392</v>
@@ -9230,18 +9267,18 @@
         <v>540</v>
       </c>
       <c r="S85" t="s">
+        <v>956</v>
+      </c>
+      <c r="U85" t="s">
         <v>957</v>
-      </c>
-      <c r="U85" t="s">
-        <v>958</v>
       </c>
       <c r="V85" t="s">
         <v>51</v>
       </c>
-      <c r="W85" s="6">
+      <c r="W85" s="5">
         <v>31753</v>
       </c>
-      <c r="AD85" s="6" t="s">
+      <c r="AD85" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE85" t="s">
@@ -9292,18 +9329,18 @@
         <v>540</v>
       </c>
       <c r="S86" t="s">
+        <v>958</v>
+      </c>
+      <c r="U86" t="s">
         <v>959</v>
-      </c>
-      <c r="U86" t="s">
-        <v>960</v>
       </c>
       <c r="V86" t="s">
         <v>43</v>
       </c>
-      <c r="W86" s="6">
+      <c r="W86" s="5">
         <v>31054</v>
       </c>
-      <c r="AD86" s="6" t="s">
+      <c r="AD86" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE86" t="s">
@@ -9354,18 +9391,18 @@
         <v>539</v>
       </c>
       <c r="S87" t="s">
+        <v>960</v>
+      </c>
+      <c r="U87" t="s">
         <v>961</v>
-      </c>
-      <c r="U87" t="s">
-        <v>962</v>
       </c>
       <c r="V87" t="s">
         <v>51</v>
       </c>
-      <c r="W87" s="6">
+      <c r="W87" s="5">
         <v>32709</v>
       </c>
-      <c r="AD87" s="6" t="s">
+      <c r="AD87" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE87" t="s">
@@ -9410,31 +9447,31 @@
         <v>41</v>
       </c>
       <c r="R88" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S88" t="s">
+        <v>962</v>
+      </c>
+      <c r="U88" t="s">
         <v>963</v>
-      </c>
-      <c r="U88" t="s">
-        <v>964</v>
       </c>
       <c r="V88" t="s">
         <v>43</v>
       </c>
-      <c r="W88" s="6">
+      <c r="W88" s="5">
         <v>28635</v>
       </c>
       <c r="Y88" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD88" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="AD88" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE88" t="s">
         <v>696</v>
       </c>
       <c r="AH88" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AI88" t="s">
         <v>428</v>
@@ -9472,24 +9509,24 @@
         <v>41</v>
       </c>
       <c r="R89" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S89" t="s">
+        <v>964</v>
+      </c>
+      <c r="U89" t="s">
         <v>965</v>
-      </c>
-      <c r="U89" t="s">
-        <v>966</v>
       </c>
       <c r="V89" t="s">
         <v>43</v>
       </c>
-      <c r="W89" s="6">
+      <c r="W89" s="5">
         <v>29174</v>
       </c>
       <c r="Y89" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD89" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="AD89" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE89" t="s">
@@ -9534,25 +9571,25 @@
         <v>41</v>
       </c>
       <c r="R90" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S90" t="s">
+        <v>966</v>
+      </c>
+      <c r="U90" t="s">
         <v>967</v>
-      </c>
-      <c r="U90" t="s">
-        <v>968</v>
       </c>
       <c r="V90" t="s">
         <v>43</v>
       </c>
-      <c r="W90" s="6">
+      <c r="W90" s="5">
         <v>34443</v>
       </c>
-      <c r="AD90" s="6" t="s">
+      <c r="AD90" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE90" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AH90" t="s">
         <v>410</v>
@@ -9593,24 +9630,24 @@
         <v>41</v>
       </c>
       <c r="R91" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="S91" t="s">
+        <v>968</v>
+      </c>
+      <c r="U91" t="s">
         <v>969</v>
-      </c>
-      <c r="U91" t="s">
-        <v>970</v>
       </c>
       <c r="V91" t="s">
         <v>43</v>
       </c>
-      <c r="W91" s="6">
+      <c r="W91" s="5">
         <v>28535</v>
       </c>
       <c r="Y91" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD91" s="6" t="s">
+        <v>985</v>
+      </c>
+      <c r="AD91" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE91" t="s">
@@ -9626,1118 +9663,1118 @@
         <v>428</v>
       </c>
     </row>
-    <row r="92" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="9" t="s">
+    <row r="92" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C92" s="9" t="s">
+      <c r="B92" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="F92" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="7">
         <v>97487489</v>
       </c>
-      <c r="J92" s="9" t="s">
+      <c r="J92" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="L92" s="7">
+        <v>98652</v>
+      </c>
+      <c r="M92" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R92" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="S92" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="U92" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="L92" s="9">
-        <v>98652</v>
-      </c>
-      <c r="M92" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R92" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="S92" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="U92" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="V92" s="9" t="s">
+      <c r="V92" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="W92" s="10">
+      <c r="W92" s="8">
         <v>25848</v>
       </c>
-      <c r="AD92" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE92" s="9" t="s">
+      <c r="AD92" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE92" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="AF92" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG92" s="11">
+      <c r="AF92" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="9">
         <f>VLOOKUP(D92,lookup!$A$2:$B$57,2,1)</f>
         <v>36</v>
       </c>
-      <c r="AH92" s="9" t="s">
+      <c r="AH92" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="AI92" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ92" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="93" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="9" t="s">
+      <c r="AI92" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ92" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B93" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="9" t="s">
+      <c r="B93" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="F93" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G93" s="7">
         <v>98463930</v>
       </c>
-      <c r="J93" s="9" t="s">
+      <c r="J93" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="L93" s="9">
+      <c r="L93" s="7">
         <v>520209</v>
       </c>
-      <c r="M93" s="9" t="s">
+      <c r="M93" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R93" s="9" t="s">
+      <c r="R93" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="S93" s="9" t="s">
+      <c r="S93" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="U93" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="U93" s="9" t="s">
-        <v>904</v>
-      </c>
-      <c r="V93" s="9" t="s">
+      <c r="V93" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="W93" s="10">
+      <c r="W93" s="8">
         <v>29748</v>
       </c>
-      <c r="AD93" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE93" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="AF93" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG93" s="11">
+      <c r="AD93" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE93" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF93" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="9">
         <f>VLOOKUP(D93,lookup!$A$2:$B$57,2,1)</f>
         <v>0</v>
       </c>
-      <c r="AH93" s="9" t="s">
+      <c r="AH93" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="AI93" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ93" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="94" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="9" t="s">
+      <c r="AI93" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ93" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="9" t="s">
+      <c r="B94" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D94" s="9" t="s">
+      <c r="D94" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G94" s="7">
         <v>82662120</v>
       </c>
-      <c r="J94" s="9" t="s">
+      <c r="J94" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L94" s="9">
+      <c r="L94" s="7">
         <v>738471</v>
       </c>
-      <c r="M94" s="9" t="s">
+      <c r="M94" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R94" s="9" t="s">
+      <c r="R94" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="S94" s="9" t="s">
+      <c r="S94" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="U94" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="U94" s="9" t="s">
-        <v>804</v>
-      </c>
-      <c r="V94" s="9" t="s">
+      <c r="V94" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="W94" s="10">
+      <c r="W94" s="8">
         <v>26374</v>
       </c>
-      <c r="Y94" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="AD94" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE94" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="AF94" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG94" s="11">
+      <c r="Y94" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD94" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE94" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF94" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="9">
         <f>VLOOKUP(D94,lookup!$A$2:$B$57,2,1)</f>
         <v>0</v>
       </c>
-      <c r="AH94" s="9" t="s">
+      <c r="AH94" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="AI94" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ94" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="95" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+      <c r="AI94" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ94" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B95" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C95" s="9" t="s">
+      <c r="B95" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="D95" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="F95" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G95" s="7">
         <v>92702490</v>
       </c>
-      <c r="J95" s="9" t="s">
+      <c r="J95" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L95" s="9">
+      <c r="L95" s="7">
         <v>320123</v>
       </c>
-      <c r="M95" s="9" t="s">
+      <c r="M95" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R95" s="9" t="s">
+      <c r="R95" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="S95" s="9" t="s">
+      <c r="S95" s="7" t="s">
+        <v>840</v>
+      </c>
+      <c r="U95" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="U95" s="9" t="s">
-        <v>842</v>
-      </c>
-      <c r="V95" s="9" t="s">
+      <c r="V95" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="W95" s="10">
+      <c r="W95" s="8">
         <v>26265</v>
       </c>
-      <c r="Y95" s="9" t="s">
-        <v>781</v>
-      </c>
-      <c r="AD95" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE95" s="9" t="s">
+      <c r="Y95" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="AD95" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE95" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="AF95" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG95" s="11">
+      <c r="AF95" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="9">
         <f>VLOOKUP(D95,lookup!$A$2:$B$57,2,1)</f>
         <v>0</v>
       </c>
-      <c r="AH95" s="9" t="s">
+      <c r="AH95" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="AI95" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ95" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
+      <c r="AI95" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ95" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C96" s="9" t="s">
+      <c r="B96" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G96" s="7">
         <v>90554501</v>
       </c>
-      <c r="J96" s="9" t="s">
+      <c r="J96" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L96" s="9">
+      <c r="L96" s="7">
         <v>738471</v>
       </c>
-      <c r="M96" s="9" t="s">
+      <c r="M96" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R96" s="9" t="s">
+      <c r="R96" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S96" s="9" t="s">
+      <c r="S96" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="U96" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="V96" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W96" s="8">
+        <v>33902</v>
+      </c>
+      <c r="Y96" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="AD96" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE96" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF96" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="9">
+        <v>21</v>
+      </c>
+      <c r="AH96" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI96" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ96" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" s="7">
+        <v>81938165</v>
+      </c>
+      <c r="J97" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L97" s="7">
+        <v>730511</v>
+      </c>
+      <c r="M97" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R97" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S97" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="U96" s="9" t="s">
+      <c r="U97" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="V96" s="9" t="s">
+      <c r="V97" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="W96" s="10">
-        <v>33902</v>
-      </c>
-      <c r="Y96" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="AD96" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE96" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="AF96" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG96" s="11">
+      <c r="W97" s="8">
+        <v>34105</v>
+      </c>
+      <c r="Y97" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="AC97" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD97" s="8">
+        <v>46799</v>
+      </c>
+      <c r="AE97" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF97" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="9">
         <v>21</v>
       </c>
-      <c r="AH96" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI96" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ96" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="97" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97" s="9" t="s">
+      <c r="AH97" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI97" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ97" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D97" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E97" s="9" t="s">
+      <c r="D98" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E98" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="F97" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G97" s="9">
-        <v>81938165</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L97" s="9">
-        <v>730511</v>
-      </c>
-      <c r="M97" s="9" t="s">
+      <c r="F98" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G98" s="7">
+        <v>89522657</v>
+      </c>
+      <c r="J98" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L98" s="7">
+        <v>752362</v>
+      </c>
+      <c r="M98" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="R97" s="9" t="s">
+      <c r="R98" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="S98" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="U98" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="V98" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W98" s="8">
+        <v>36221</v>
+      </c>
+      <c r="Y98" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="AC98" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD98" s="8">
+        <v>46796</v>
+      </c>
+      <c r="AE98" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF98" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH98" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI98" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ98" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G99" s="7">
+        <v>88943684</v>
+      </c>
+      <c r="J99" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L99" s="7">
+        <v>311153</v>
+      </c>
+      <c r="M99" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R99" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="S99" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="U99" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="V99" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W99" s="8">
+        <v>36191</v>
+      </c>
+      <c r="Y99" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="AC99" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD99" s="8">
+        <v>46385</v>
+      </c>
+      <c r="AE99" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF99" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH99" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI99" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ99" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G100" s="7">
+        <v>96930361</v>
+      </c>
+      <c r="J100" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L100" s="7">
+        <v>759419</v>
+      </c>
+      <c r="M100" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R100" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="S100" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="U100" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="V100" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W100" s="8">
+        <v>24858</v>
+      </c>
+      <c r="Y100" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD100" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE100" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF100" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI100" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ100" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G101" s="7">
+        <v>81723644</v>
+      </c>
+      <c r="J101" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L101" s="7">
+        <v>738471</v>
+      </c>
+      <c r="M101" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R101" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="S101" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="U101" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="V101" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W101" s="8">
+        <v>32022</v>
+      </c>
+      <c r="Y101" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="AD101" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE101" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF101" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="9">
+        <v>21</v>
+      </c>
+      <c r="AH101" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI101" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ101" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="G102" s="7">
+        <v>85106326</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L102" s="7">
+        <v>738471</v>
+      </c>
+      <c r="M102" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R102" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="S102" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="U102" s="7" t="s">
+        <v>820</v>
+      </c>
+      <c r="V102" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W102" s="8">
+        <v>29037</v>
+      </c>
+      <c r="Y102" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD102" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE102" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF102" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="9">
+        <v>21</v>
+      </c>
+      <c r="AH102" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI102" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ102" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G103" s="7">
+        <v>91125651</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L103" s="7">
+        <v>330055</v>
+      </c>
+      <c r="M103" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R103" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="S103" s="7" t="s">
+        <v>836</v>
+      </c>
+      <c r="U103" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="V103" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W103" s="8">
+        <v>34029</v>
+      </c>
+      <c r="Y103" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD103" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE103" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF103" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH103" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI103" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ103" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="G104" s="7">
+        <v>82364014</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="L104" s="7">
+        <v>532475</v>
+      </c>
+      <c r="M104" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R104" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="S104" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="V104" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W104" s="8">
+        <v>36813</v>
+      </c>
+      <c r="Y104" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD104" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE104" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF104" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH104" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="AI104" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ104" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>981</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L105" s="7">
+        <v>738471</v>
+      </c>
+      <c r="M105" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R105" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="U105" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="V105" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W105" s="8">
+        <v>35413</v>
+      </c>
+      <c r="Y105" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="AD105" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE105" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="AF105" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH105" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="AI105" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ105" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="106" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G106" s="7">
+        <v>81231401</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L106" s="7">
+        <v>530559</v>
+      </c>
+      <c r="M106" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R106" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="S106" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="U106" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="V106" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="W106" s="8">
+        <v>26229</v>
+      </c>
+      <c r="Y106" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD106" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE106" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="AG106" s="9"/>
+      <c r="AH106" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI106" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ106" s="7" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G107" s="7">
+        <v>84668344</v>
+      </c>
+      <c r="J107" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L107" s="7">
+        <v>735786</v>
+      </c>
+      <c r="M107" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R107" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S97" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="U97" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="V97" s="9" t="s">
+      <c r="S107" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="U107" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="V107" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="W97" s="10">
-        <v>34105</v>
-      </c>
-      <c r="Y97" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="AC97" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD97" s="10">
-        <v>46799</v>
-      </c>
-      <c r="AE97" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="AF97" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG97" s="11">
-        <v>21</v>
-      </c>
-      <c r="AH97" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI97" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ97" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="98" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
-        <v>704</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C98" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G98" s="9">
-        <v>89522657</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="L98" s="9">
-        <v>752362</v>
-      </c>
-      <c r="M98" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R98" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="S98" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="U98" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="V98" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W98" s="10">
-        <v>36221</v>
-      </c>
-      <c r="Y98" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="AC98" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD98" s="10">
-        <v>46796</v>
-      </c>
-      <c r="AE98" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="AF98" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG98" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH98" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI98" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ98" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="99" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="9" t="s">
-        <v>705</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D99" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="G99" s="9">
-        <v>88943684</v>
-      </c>
-      <c r="J99" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="L99" s="9">
-        <v>311153</v>
-      </c>
-      <c r="M99" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R99" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="S99" s="9" t="s">
-        <v>788</v>
-      </c>
-      <c r="U99" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="V99" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W99" s="10">
-        <v>36191</v>
-      </c>
-      <c r="Y99" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="AC99" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD99" s="10">
-        <v>46385</v>
-      </c>
-      <c r="AE99" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="AF99" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG99" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH99" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI99" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ99" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="100" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C100" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>691</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="G100" s="9">
-        <v>96930361</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="L100" s="9">
-        <v>759419</v>
-      </c>
-      <c r="M100" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R100" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="S100" s="9" t="s">
-        <v>797</v>
-      </c>
-      <c r="U100" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="V100" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W100" s="10">
-        <v>24858</v>
-      </c>
-      <c r="Y100" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="AD100" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE100" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="AF100" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH100" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI100" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ100" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="101" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="G101" s="9">
-        <v>81723644</v>
-      </c>
-      <c r="J101" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L101" s="9">
-        <v>738471</v>
-      </c>
-      <c r="M101" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R101" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="S101" s="9" t="s">
-        <v>816</v>
-      </c>
-      <c r="U101" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="V101" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W101" s="10">
-        <v>32022</v>
-      </c>
-      <c r="Y101" s="9" t="s">
-        <v>818</v>
-      </c>
-      <c r="AD101" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE101" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="AF101" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG101" s="11">
-        <v>21</v>
-      </c>
-      <c r="AH101" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI101" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ101" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="102" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="G102" s="9">
-        <v>85106326</v>
-      </c>
-      <c r="J102" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L102" s="9">
-        <v>738471</v>
-      </c>
-      <c r="M102" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R102" s="9" t="s">
-        <v>819</v>
-      </c>
-      <c r="S102" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="U102" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="V102" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W102" s="10">
-        <v>29037</v>
-      </c>
-      <c r="Y102" s="9" t="s">
-        <v>822</v>
-      </c>
-      <c r="AD102" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE102" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="AF102" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG102" s="11">
-        <v>21</v>
-      </c>
-      <c r="AH102" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI102" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ102" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="103" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="G103" s="9">
-        <v>91125651</v>
-      </c>
-      <c r="J103" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="L103" s="9">
-        <v>330055</v>
-      </c>
-      <c r="M103" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R103" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="S103" s="9" t="s">
-        <v>837</v>
-      </c>
-      <c r="U103" s="9" t="s">
-        <v>838</v>
-      </c>
-      <c r="V103" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W103" s="10">
-        <v>34029</v>
-      </c>
-      <c r="Y103" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="AD103" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE103" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="AF103" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG103" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH103" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI103" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ103" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="104" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="G104" s="9">
-        <v>82364014</v>
-      </c>
-      <c r="J104" s="9" t="s">
-        <v>847</v>
-      </c>
-      <c r="L104" s="9">
-        <v>532475</v>
-      </c>
-      <c r="M104" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R104" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="S104" s="9" t="s">
-        <v>848</v>
-      </c>
-      <c r="V104" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W104" s="10">
-        <v>36813</v>
-      </c>
-      <c r="Y104" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="AD104" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE104" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="AF104" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG104" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH104" s="9" t="s">
-        <v>974</v>
-      </c>
-      <c r="AI104" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ104" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="105" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="G105" s="12" t="s">
+      <c r="W107" s="8">
+        <v>33285</v>
+      </c>
+      <c r="Y107" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="AC107" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="AD107" s="8">
+        <v>45834</v>
+      </c>
+      <c r="AE107" s="7" t="s">
         <v>982</v>
       </c>
-      <c r="J105" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="L105" s="9">
-        <v>738471</v>
-      </c>
-      <c r="M105" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R105" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="U105" s="9" t="s">
-        <v>916</v>
-      </c>
-      <c r="V105" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W105" s="10">
-        <v>35413</v>
-      </c>
-      <c r="Y105" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="AD105" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE105" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="AF105" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG105" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH105" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI105" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ105" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="106" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="G106" s="9">
-        <v>81231401</v>
-      </c>
-      <c r="J106" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="L106" s="9">
-        <v>530559</v>
-      </c>
-      <c r="M106" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R106" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="S106" s="9" t="s">
-        <v>923</v>
-      </c>
-      <c r="U106" s="9" t="s">
-        <v>924</v>
-      </c>
-      <c r="V106" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W106" s="10">
-        <v>26229</v>
-      </c>
-      <c r="Y106" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="AD106" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE106" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="AG106" s="11"/>
-      <c r="AH106" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="AI106" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ106" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="107" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C107" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>707</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="G107" s="9">
-        <v>84668344</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="L107" s="9">
-        <v>735786</v>
-      </c>
-      <c r="M107" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="R107" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="S107" s="9" t="s">
-        <v>947</v>
-      </c>
-      <c r="U107" s="9" t="s">
-        <v>948</v>
-      </c>
-      <c r="V107" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="W107" s="10">
-        <v>33285</v>
-      </c>
-      <c r="Y107" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="AC107" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="AD107" s="10">
-        <v>45834</v>
-      </c>
-      <c r="AE107" s="9" t="s">
-        <v>983</v>
-      </c>
-      <c r="AG107" s="11"/>
-      <c r="AH107" s="9" t="s">
+      <c r="AG107" s="9"/>
+      <c r="AH107" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="AI107" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ107" s="9" t="s">
+      <c r="AI107" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ107" s="7" t="s">
         <v>428</v>
       </c>
     </row>
@@ -10747,6 +10784,9 @@
       <sortCondition ref="A1:A103"/>
     </sortState>
   </autoFilter>
+  <conditionalFormatting sqref="AH1:AH1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10755,7 +10795,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAD3DFD0-E69F-4522-9873-1506894A8B69}">
   <dimension ref="A1:AJ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10929,7 +10971,7 @@
         <v>97487489</v>
       </c>
       <c r="J2" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="L2">
         <v>98652</v>
@@ -10941,18 +10983,18 @@
         <v>540</v>
       </c>
       <c r="S2" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="U2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="5">
         <v>25848</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE2" t="s">
@@ -11010,22 +11052,22 @@
         <v>540</v>
       </c>
       <c r="S3" t="s">
+        <v>902</v>
+      </c>
+      <c r="U3" t="s">
         <v>903</v>
-      </c>
-      <c r="U3" t="s">
-        <v>904</v>
       </c>
       <c r="V3" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="5">
         <v>29748</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -11079,7 +11121,7 @@
         <v>540</v>
       </c>
       <c r="S4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U4" t="s">
         <v>577</v>
@@ -11087,10 +11129,10 @@
       <c r="V4" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="5">
         <v>26419</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AD4" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE4" t="s">
@@ -11123,7 +11165,7 @@
   <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11308,25 +11350,25 @@
         <v>539</v>
       </c>
       <c r="S2" t="s">
+        <v>802</v>
+      </c>
+      <c r="U2" t="s">
         <v>803</v>
-      </c>
-      <c r="U2" t="s">
-        <v>804</v>
       </c>
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="5">
         <v>26374</v>
       </c>
       <c r="Y2" t="s">
         <v>546</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -11380,21 +11422,21 @@
         <v>540</v>
       </c>
       <c r="S3" t="s">
+        <v>840</v>
+      </c>
+      <c r="U3" t="s">
         <v>841</v>
-      </c>
-      <c r="U3" t="s">
-        <v>842</v>
       </c>
       <c r="V3" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="5">
         <v>26265</v>
       </c>
       <c r="Y3" t="s">
-        <v>781</v>
-      </c>
-      <c r="AD3" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="AD3" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE3" t="s">
@@ -11452,7 +11494,7 @@
         <v>540</v>
       </c>
       <c r="S4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U4" t="s">
         <v>577</v>
@@ -11460,10 +11502,10 @@
       <c r="V4" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="5">
         <v>26419</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AD4" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE4" t="s">
@@ -11496,7 +11538,7 @@
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11681,25 +11723,25 @@
         <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="U2" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="6">
+      <c r="W2" s="5">
         <v>33902</v>
       </c>
       <c r="Y2" t="s">
         <v>552</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE2" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -11752,15 +11794,15 @@
         <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="U3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="V3" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="5">
         <v>34105</v>
       </c>
       <c r="Y3" t="s">
@@ -11769,11 +11811,11 @@
       <c r="AC3" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="5">
         <v>46799</v>
       </c>
       <c r="AE3" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -11823,31 +11865,31 @@
         <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="S4" t="s">
+        <v>785</v>
+      </c>
+      <c r="U4" t="s">
         <v>786</v>
-      </c>
-      <c r="U4" t="s">
-        <v>787</v>
       </c>
       <c r="V4" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="5">
         <v>36221</v>
       </c>
       <c r="Y4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AC4" t="s">
         <v>205</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="5">
         <v>46796</v>
       </c>
       <c r="AE4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -11897,31 +11939,31 @@
         <v>41</v>
       </c>
       <c r="R5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="S5" t="s">
+        <v>787</v>
+      </c>
+      <c r="U5" t="s">
         <v>788</v>
-      </c>
-      <c r="U5" t="s">
-        <v>789</v>
       </c>
       <c r="V5" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="5">
         <v>36191</v>
       </c>
       <c r="Y5" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AC5" t="s">
         <v>182</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="5">
         <v>46385</v>
       </c>
       <c r="AE5" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -11974,21 +12016,21 @@
         <v>540</v>
       </c>
       <c r="S6" t="s">
+        <v>796</v>
+      </c>
+      <c r="U6" t="s">
         <v>797</v>
-      </c>
-      <c r="U6" t="s">
-        <v>798</v>
       </c>
       <c r="V6" t="s">
         <v>43</v>
       </c>
-      <c r="W6" s="6">
+      <c r="W6" s="5">
         <v>24858</v>
       </c>
       <c r="Y6" t="s">
         <v>581</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AD6" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE6" t="s">
@@ -12042,28 +12084,28 @@
         <v>41</v>
       </c>
       <c r="R7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="S7" t="s">
+        <v>815</v>
+      </c>
+      <c r="U7" t="s">
         <v>816</v>
-      </c>
-      <c r="U7" t="s">
-        <v>817</v>
       </c>
       <c r="V7" t="s">
         <v>43</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="5">
         <v>32022</v>
       </c>
       <c r="Y7" t="s">
-        <v>818</v>
-      </c>
-      <c r="AD7" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="AD7" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -12110,24 +12152,24 @@
         <v>41</v>
       </c>
       <c r="R8" t="s">
+        <v>818</v>
+      </c>
+      <c r="S8" t="s">
         <v>819</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>820</v>
-      </c>
-      <c r="U8" t="s">
-        <v>821</v>
       </c>
       <c r="V8" t="s">
         <v>43</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="5">
         <v>29037</v>
       </c>
       <c r="Y8" t="s">
-        <v>822</v>
-      </c>
-      <c r="AD8" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="AD8" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE8" t="s">
@@ -12184,25 +12226,25 @@
         <v>540</v>
       </c>
       <c r="S9" t="s">
+        <v>836</v>
+      </c>
+      <c r="U9" t="s">
         <v>837</v>
-      </c>
-      <c r="U9" t="s">
-        <v>838</v>
       </c>
       <c r="V9" t="s">
         <v>43</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="5">
         <v>34029</v>
       </c>
       <c r="Y9" t="s">
         <v>581</v>
       </c>
-      <c r="AD9" s="6" t="s">
+      <c r="AD9" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -12231,7 +12273,7 @@
         <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E10" t="s">
         <v>707</v>
@@ -12240,7 +12282,7 @@
         <v>82364014</v>
       </c>
       <c r="J10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="L10">
         <v>532475</v>
@@ -12252,22 +12294,22 @@
         <v>540</v>
       </c>
       <c r="S10" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="V10" t="s">
         <v>43</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="5">
         <v>36813</v>
       </c>
       <c r="Y10" t="s">
         <v>581</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AD10" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE10" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -12276,7 +12318,7 @@
         <v>0</v>
       </c>
       <c r="AH10" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AI10" t="s">
         <v>428</v>
@@ -12301,8 +12343,8 @@
       <c r="E11" t="s">
         <v>707</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>982</v>
+      <c r="G11" s="6" t="s">
+        <v>981</v>
       </c>
       <c r="J11" t="s">
         <v>40</v>
@@ -12314,25 +12356,25 @@
         <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="U11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="V11" t="s">
         <v>43</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="5">
         <v>35413</v>
       </c>
       <c r="Y11" t="s">
-        <v>756</v>
-      </c>
-      <c r="AD11" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="AD11" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE11" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -12385,25 +12427,25 @@
         <v>540</v>
       </c>
       <c r="S12" t="s">
+        <v>922</v>
+      </c>
+      <c r="U12" t="s">
         <v>923</v>
-      </c>
-      <c r="U12" t="s">
-        <v>924</v>
       </c>
       <c r="V12" t="s">
         <v>43</v>
       </c>
-      <c r="W12" s="6">
+      <c r="W12" s="5">
         <v>26229</v>
       </c>
       <c r="Y12" t="s">
         <v>581</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AD12" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE12" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" t="s">
@@ -12451,15 +12493,15 @@
         <v>60</v>
       </c>
       <c r="S13" t="s">
+        <v>946</v>
+      </c>
+      <c r="U13" t="s">
         <v>947</v>
-      </c>
-      <c r="U13" t="s">
-        <v>948</v>
       </c>
       <c r="V13" t="s">
         <v>43</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="5">
         <v>33285</v>
       </c>
       <c r="Y13" t="s">
@@ -12468,11 +12510,11 @@
       <c r="AC13" t="s">
         <v>378</v>
       </c>
-      <c r="AD13" s="6">
+      <c r="AD13" s="5">
         <v>45834</v>
       </c>
       <c r="AE13" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" t="s">
@@ -12520,7 +12562,7 @@
         <v>540</v>
       </c>
       <c r="S14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="U14" t="s">
         <v>577</v>
@@ -12528,10 +12570,10 @@
       <c r="V14" t="s">
         <v>43</v>
       </c>
-      <c r="W14" s="6">
+      <c r="W14" s="5">
         <v>26419</v>
       </c>
-      <c r="AD14" s="6" t="s">
+      <c r="AD14" s="5" t="s">
         <v>428</v>
       </c>
       <c r="AE14" t="s">
@@ -12561,28 +12603,403 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96095BC9-87F7-4A0E-B51A-A96CAED58D80}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E2" t="s">
+        <v>691</v>
+      </c>
+      <c r="F2" t="s">
+        <v>851</v>
+      </c>
+      <c r="G2">
+        <v>97348586</v>
+      </c>
+      <c r="J2" t="s">
+        <v>852</v>
+      </c>
+      <c r="L2">
+        <v>759283</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>540</v>
+      </c>
+      <c r="S2" t="s">
+        <v>853</v>
+      </c>
+      <c r="U2" t="s">
+        <v>854</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="5">
+        <v>25964</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3">
+        <f>VLOOKUP(D2,lookup!$A$2:$B$57,2,1)</f>
+        <v>36</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>974</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AH1">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F319A340-C9DB-4F82-AF7D-3E3C2097EE21}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>719</v>
+      </c>
+      <c r="F2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G2">
+        <v>96173941</v>
+      </c>
+      <c r="J2" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2">
+        <v>769778</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" t="s">
+        <v>540</v>
+      </c>
+      <c r="S2" t="s">
+        <v>848</v>
+      </c>
+      <c r="U2" t="s">
+        <v>577</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="5">
+        <v>26419</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="3">
+        <f>VLOOKUP(D2,lookup!$A$2:$B$57,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AH1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/BOM/Employee/employee.xlsx
+++ b/BOM/Employee/employee.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordan/Alitec/docker/odoo18/repo/lingjack-import-script/BOM/Employee/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jordan/Alitec/Bom/BOM/Employee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D25A42-AFC2-8249-A22B-6AA0B7FDE5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB993913-C086-7D42-9D54-90C44CC5ED20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="29400" windowHeight="19120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LJE " sheetId="16" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="994">
   <si>
     <t>Employee Name</t>
   </si>
@@ -2286,6 +2286,15 @@
   </si>
   <si>
     <t>YIN DEZHUANG</t>
+  </si>
+  <si>
+    <t>Emlpoyee Name</t>
+  </si>
+  <si>
+    <t>Emergency Contact Name</t>
+  </si>
+  <si>
+    <t>Emergency Contact Phone</t>
   </si>
   <si>
     <t>M3401812R</t>
@@ -3067,7 +3076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3077,8 +3086,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3089,7 +3102,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3432,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{064F60C6-3E6C-4E07-B0A1-9D5C9591EF3A}">
   <dimension ref="A1:AJ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3441,9 +3464,9 @@
     <col min="1" max="7" width="30.6640625" customWidth="1"/>
     <col min="8" max="9" width="16.83203125" customWidth="1"/>
     <col min="10" max="22" width="30.6640625" customWidth="1"/>
-    <col min="23" max="23" width="30.6640625" style="5" customWidth="1"/>
+    <col min="23" max="23" width="30.6640625" style="6" customWidth="1"/>
     <col min="24" max="29" width="30.6640625" customWidth="1"/>
-    <col min="30" max="30" width="30.6640625" style="5" customWidth="1"/>
+    <col min="30" max="30" width="30.6640625" style="6" customWidth="1"/>
     <col min="31" max="31" width="14.6640625" customWidth="1"/>
     <col min="32" max="32" width="3.1640625" customWidth="1"/>
     <col min="33" max="33" width="18.5" style="3" customWidth="1"/>
@@ -3453,7 +3476,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>747</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3518,7 +3541,7 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="5" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
@@ -3539,7 +3562,7 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="5" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="1" t="s">
@@ -3548,17 +3571,17 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>34</v>
+        <v>748</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>35</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -3593,25 +3616,25 @@
         <v>539</v>
       </c>
       <c r="S2" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="U2" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="6">
         <v>36048</v>
       </c>
       <c r="Y2" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD2" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -3662,25 +3685,25 @@
         <v>539</v>
       </c>
       <c r="S3" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="U3" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="V3" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="6">
         <v>35692</v>
       </c>
       <c r="Y3" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD3" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD3" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE3" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -3719,7 +3742,7 @@
         <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="J4" t="s">
         <v>40</v>
@@ -3731,25 +3754,25 @@
         <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="U4" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="V4" t="s">
         <v>51</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="6">
         <v>25921</v>
       </c>
       <c r="Y4" t="s">
-        <v>984</v>
-      </c>
-      <c r="AD4" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="AD4" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE4" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -3797,24 +3820,24 @@
         <v>41</v>
       </c>
       <c r="R5" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="S5" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="U5" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="V5" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="6">
         <v>32426</v>
       </c>
       <c r="Y5" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD5" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="AD5" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE5" t="s">
@@ -3872,24 +3895,24 @@
         <v>60</v>
       </c>
       <c r="S6" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="U6" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="V6" t="s">
         <v>43</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="6">
         <v>31666</v>
       </c>
       <c r="Y6" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="AC6" t="s">
         <v>85</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="6">
         <v>46389</v>
       </c>
       <c r="AE6" t="s">
@@ -3947,21 +3970,21 @@
         <v>540</v>
       </c>
       <c r="S7" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="U7" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="V7" t="s">
         <v>51</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="6">
         <v>31085</v>
       </c>
       <c r="Y7" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD7" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD7" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE7" t="s">
@@ -4019,21 +4042,21 @@
         <v>540</v>
       </c>
       <c r="S8" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="U8" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="V8" t="s">
         <v>51</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="6">
         <v>32918</v>
       </c>
       <c r="Y8" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD8" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD8" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE8" t="s">
@@ -4070,7 +4093,7 @@
         <v>133</v>
       </c>
       <c r="E9" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="F9" t="s">
         <v>134</v>
@@ -4094,19 +4117,19 @@
         <v>561</v>
       </c>
       <c r="U9" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="V9" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="6">
         <v>22006</v>
       </c>
-      <c r="AD9" s="5" t="s">
+      <c r="AD9" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE9" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -4142,13 +4165,13 @@
         <v>686</v>
       </c>
       <c r="F10" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="G10">
         <v>84443859</v>
       </c>
       <c r="J10" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="L10">
         <v>640515</v>
@@ -4157,31 +4180,31 @@
         <v>41</v>
       </c>
       <c r="R10" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="S10" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="U10" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="V10" t="s">
         <v>51</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="6">
         <v>36932</v>
       </c>
       <c r="Y10" t="s">
+        <v>988</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>780</v>
+      </c>
+      <c r="AD10" s="6">
+        <v>46722</v>
+      </c>
+      <c r="AE10" t="s">
         <v>985</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>777</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>46722</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>982</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -4191,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="AH10" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="AI10" t="s">
         <v>428</v>
@@ -4229,24 +4252,24 @@
         <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="S11" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="U11" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="V11" t="s">
         <v>43</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="6">
         <v>27293</v>
       </c>
       <c r="Y11" t="s">
-        <v>985</v>
-      </c>
-      <c r="AD11" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD11" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE11" t="s">
@@ -4304,21 +4327,21 @@
         <v>539</v>
       </c>
       <c r="S12" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="U12" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="V12" t="s">
         <v>51</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="6">
         <v>34258</v>
       </c>
       <c r="Y12" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD12" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD12" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE12" t="s">
@@ -4376,25 +4399,25 @@
         <v>539</v>
       </c>
       <c r="S13" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="U13" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="V13" t="s">
         <v>51</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13" s="6">
         <v>36135</v>
       </c>
       <c r="Y13" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD13" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD13" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE13" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -4442,24 +4465,24 @@
         <v>41</v>
       </c>
       <c r="R14" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="S14" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="U14" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="V14" t="s">
         <v>43</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="6">
         <v>32848</v>
       </c>
       <c r="Y14" t="s">
-        <v>985</v>
-      </c>
-      <c r="AD14" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD14" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE14" t="s">
@@ -4514,22 +4537,22 @@
         <v>539</v>
       </c>
       <c r="S15" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="U15" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="V15" t="s">
         <v>43</v>
       </c>
-      <c r="W15" s="5">
+      <c r="W15" s="6">
         <v>34993</v>
       </c>
-      <c r="AD15" s="5" t="s">
+      <c r="AD15" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE15" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -4559,7 +4582,7 @@
         <v>223</v>
       </c>
       <c r="D16" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="E16" t="s">
         <v>708</v>
@@ -4568,7 +4591,7 @@
         <v>83635935</v>
       </c>
       <c r="J16" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="L16">
         <v>792411</v>
@@ -4580,22 +4603,22 @@
         <v>540</v>
       </c>
       <c r="S16" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="V16" t="s">
         <v>43</v>
       </c>
-      <c r="W16" s="5">
+      <c r="W16" s="6">
         <v>38578</v>
       </c>
       <c r="Y16" t="s">
-        <v>988</v>
-      </c>
-      <c r="AD16" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="AD16" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE16" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -4605,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="AH16" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="AI16" t="s">
         <v>428</v>
@@ -4643,24 +4666,24 @@
         <v>41</v>
       </c>
       <c r="R17" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="S17" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="U17" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="V17" t="s">
         <v>43</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="6">
         <v>31040</v>
       </c>
       <c r="Y17" t="s">
-        <v>985</v>
-      </c>
-      <c r="AD17" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD17" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE17" t="s">
@@ -4718,18 +4741,18 @@
         <v>540</v>
       </c>
       <c r="S18" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="U18" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="V18" t="s">
         <v>43</v>
       </c>
-      <c r="W18" s="5">
+      <c r="W18" s="6">
         <v>25985</v>
       </c>
-      <c r="AD18" s="5" t="s">
+      <c r="AD18" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE18" t="s">
@@ -4787,18 +4810,18 @@
         <v>540</v>
       </c>
       <c r="S19" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="U19" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="V19" t="s">
         <v>51</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19" s="6">
         <v>27202</v>
       </c>
-      <c r="AD19" s="5" t="s">
+      <c r="AD19" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE19" t="s">
@@ -4850,25 +4873,25 @@
         <v>41</v>
       </c>
       <c r="R20" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="S20" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="U20" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="V20" t="s">
         <v>43</v>
       </c>
-      <c r="W20" s="5">
+      <c r="W20" s="6">
         <v>35953</v>
       </c>
-      <c r="AD20" s="5" t="s">
+      <c r="AD20" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE20" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -4919,18 +4942,18 @@
         <v>539</v>
       </c>
       <c r="S21" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="U21" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="V21" t="s">
         <v>43</v>
       </c>
-      <c r="W21" s="5">
+      <c r="W21" s="6">
         <v>30892</v>
       </c>
-      <c r="AD21" s="5" t="s">
+      <c r="AD21" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE21" t="s">
@@ -4982,28 +5005,28 @@
         <v>41</v>
       </c>
       <c r="R22" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="S22" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="U22" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="V22" t="s">
         <v>43</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" s="6">
         <v>33703</v>
       </c>
       <c r="Y22" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD22" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="AD22" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE22" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -5057,18 +5080,18 @@
         <v>539</v>
       </c>
       <c r="S23" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="U23" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="V23" t="s">
         <v>51</v>
       </c>
-      <c r="W23" s="5">
+      <c r="W23" s="6">
         <v>31076</v>
       </c>
-      <c r="AD23" s="5" t="s">
+      <c r="AD23" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE23" t="s">
@@ -5110,8 +5133,8 @@
       <c r="F24" t="s">
         <v>162</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>979</v>
+      <c r="G24" s="7" t="s">
+        <v>982</v>
       </c>
       <c r="J24" t="s">
         <v>40</v>
@@ -5126,15 +5149,15 @@
         <v>60</v>
       </c>
       <c r="U24" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="V24" t="s">
         <v>43</v>
       </c>
-      <c r="W24" s="5">
+      <c r="W24" s="6">
         <v>30346</v>
       </c>
-      <c r="AD24" s="5" t="s">
+      <c r="AD24" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE24" t="s">
@@ -5195,15 +5218,15 @@
         <v>567</v>
       </c>
       <c r="U25" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="V25" t="s">
         <v>51</v>
       </c>
-      <c r="W25" s="5">
+      <c r="W25" s="6">
         <v>26089</v>
       </c>
-      <c r="AD25" s="5" t="s">
+      <c r="AD25" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE25" t="s">
@@ -5242,8 +5265,8 @@
       <c r="E26" t="s">
         <v>698</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>980</v>
+      <c r="G26" s="7" t="s">
+        <v>983</v>
       </c>
       <c r="J26" t="s">
         <v>40</v>
@@ -5258,25 +5281,25 @@
         <v>539</v>
       </c>
       <c r="S26" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="U26" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="V26" t="s">
         <v>43</v>
       </c>
-      <c r="W26" s="5">
+      <c r="W26" s="6">
         <v>37073</v>
       </c>
       <c r="Y26" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD26" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD26" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE26" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -5286,7 +5309,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="AI26" t="s">
         <v>428</v>
@@ -5327,22 +5350,22 @@
         <v>539</v>
       </c>
       <c r="S27" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="U27" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="V27" t="s">
         <v>51</v>
       </c>
-      <c r="W27" s="5">
+      <c r="W27" s="6">
         <v>22230</v>
       </c>
-      <c r="AD27" s="5" t="s">
+      <c r="AD27" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE27" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -5396,18 +5419,18 @@
         <v>540</v>
       </c>
       <c r="S28" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="U28" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="V28" t="s">
         <v>43</v>
       </c>
-      <c r="W28" s="5">
+      <c r="W28" s="6">
         <v>26201</v>
       </c>
-      <c r="AD28" s="5" t="s">
+      <c r="AD28" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE28" t="s">
@@ -5465,25 +5488,25 @@
         <v>540</v>
       </c>
       <c r="S29" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="U29" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="V29" t="s">
         <v>51</v>
       </c>
-      <c r="W29" s="5">
+      <c r="W29" s="6">
         <v>34558</v>
       </c>
       <c r="Y29" t="s">
-        <v>988</v>
-      </c>
-      <c r="AD29" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="AD29" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE29" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -5513,7 +5536,7 @@
         <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="E30" t="s">
         <v>728</v>
@@ -5537,21 +5560,21 @@
         <v>539</v>
       </c>
       <c r="S30" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="U30" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="V30" t="s">
         <v>51</v>
       </c>
-      <c r="W30" s="5">
+      <c r="W30" s="6">
         <v>35727</v>
       </c>
       <c r="Y30" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD30" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD30" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE30" t="s">
@@ -5609,21 +5632,21 @@
         <v>540</v>
       </c>
       <c r="S31" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="U31" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="V31" t="s">
         <v>43</v>
       </c>
-      <c r="W31" s="5">
+      <c r="W31" s="6">
         <v>33426</v>
       </c>
       <c r="Y31" t="s">
-        <v>988</v>
-      </c>
-      <c r="AD31" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="AD31" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE31" t="s">
@@ -5681,25 +5704,25 @@
         <v>539</v>
       </c>
       <c r="S32" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="U32" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="V32" t="s">
         <v>43</v>
       </c>
-      <c r="W32" s="5">
+      <c r="W32" s="6">
         <v>34700</v>
       </c>
       <c r="Y32" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD32" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD32" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE32" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -5753,18 +5776,18 @@
         <v>540</v>
       </c>
       <c r="S33" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="U33" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="V33" t="s">
         <v>51</v>
       </c>
-      <c r="W33" s="5">
+      <c r="W33" s="6">
         <v>30052</v>
       </c>
-      <c r="AD33" s="5" t="s">
+      <c r="AD33" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE33" t="s">
@@ -5822,18 +5845,18 @@
         <v>540</v>
       </c>
       <c r="S34" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="U34" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="V34" t="s">
         <v>51</v>
       </c>
-      <c r="W34" s="5">
+      <c r="W34" s="6">
         <v>25611</v>
       </c>
-      <c r="AD34" s="5" t="s">
+      <c r="AD34" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE34" t="s">
@@ -5891,7 +5914,7 @@
         <v>540</v>
       </c>
       <c r="S35" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="U35" t="s">
         <v>577</v>
@@ -5899,10 +5922,10 @@
       <c r="V35" t="s">
         <v>43</v>
       </c>
-      <c r="W35" s="5">
+      <c r="W35" s="6">
         <v>26419</v>
       </c>
-      <c r="AD35" s="5" t="s">
+      <c r="AD35" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE35" t="s">
@@ -5960,7 +5983,7 @@
         <v>540</v>
       </c>
       <c r="S36" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="U36" t="s">
         <v>580</v>
@@ -5968,10 +5991,10 @@
       <c r="V36" t="s">
         <v>43</v>
       </c>
-      <c r="W36" s="5">
+      <c r="W36" s="6">
         <v>26419</v>
       </c>
-      <c r="AD36" s="5" t="s">
+      <c r="AD36" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE36" t="s">
@@ -6005,19 +6028,19 @@
         <v>209</v>
       </c>
       <c r="D37" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="E37" t="s">
         <v>691</v>
       </c>
       <c r="F37" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="G37">
         <v>97348586</v>
       </c>
       <c r="J37" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="L37">
         <v>759283</v>
@@ -6029,21 +6052,21 @@
         <v>540</v>
       </c>
       <c r="S37" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="U37" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="V37" t="s">
         <v>43</v>
       </c>
-      <c r="W37" s="5">
+      <c r="W37" s="6">
         <v>25964</v>
       </c>
       <c r="Y37" t="s">
-        <v>988</v>
-      </c>
-      <c r="AD37" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="AD37" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE37" t="s">
@@ -6057,7 +6080,7 @@
         <v>36</v>
       </c>
       <c r="AH37" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="AI37" t="s">
         <v>428</v>
@@ -6101,22 +6124,22 @@
         <v>539</v>
       </c>
       <c r="S38" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="U38" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="V38" t="s">
         <v>51</v>
       </c>
-      <c r="W38" s="5">
+      <c r="W38" s="6">
         <v>35985</v>
       </c>
-      <c r="AD38" s="5" t="s">
+      <c r="AD38" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE38" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -6167,18 +6190,18 @@
         <v>540</v>
       </c>
       <c r="S39" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="U39" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="V39" t="s">
         <v>43</v>
       </c>
-      <c r="W39" s="5">
+      <c r="W39" s="6">
         <v>15883</v>
       </c>
-      <c r="AD39" s="5" t="s">
+      <c r="AD39" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE39" t="s">
@@ -6230,21 +6253,21 @@
         <v>41</v>
       </c>
       <c r="R40" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="S40" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="U40" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="V40" t="s">
         <v>43</v>
       </c>
-      <c r="W40" s="5">
+      <c r="W40" s="6">
         <v>27827</v>
       </c>
-      <c r="AD40" s="5" t="s">
+      <c r="AD40" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE40" t="s">
@@ -6296,21 +6319,21 @@
         <v>41</v>
       </c>
       <c r="R41" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="S41" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="U41" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="V41" t="s">
         <v>43</v>
       </c>
-      <c r="W41" s="5">
+      <c r="W41" s="6">
         <v>29446</v>
       </c>
-      <c r="AD41" s="5" t="s">
+      <c r="AD41" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE41" t="s">
@@ -6368,18 +6391,18 @@
         <v>539</v>
       </c>
       <c r="S42" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="U42" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="V42" t="s">
         <v>43</v>
       </c>
-      <c r="W42" s="5">
+      <c r="W42" s="6">
         <v>29694</v>
       </c>
-      <c r="AD42" s="5" t="s">
+      <c r="AD42" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE42" t="s">
@@ -6434,18 +6457,18 @@
         <v>539</v>
       </c>
       <c r="S43" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="U43" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="V43" t="s">
         <v>43</v>
       </c>
-      <c r="W43" s="5">
+      <c r="W43" s="6">
         <v>28030</v>
       </c>
-      <c r="AD43" s="5" t="s">
+      <c r="AD43" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE43" t="s">
@@ -6503,25 +6526,25 @@
         <v>693</v>
       </c>
       <c r="S44" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="U44" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="V44" t="s">
         <v>51</v>
       </c>
-      <c r="W44" s="5">
+      <c r="W44" s="6">
         <v>33383</v>
       </c>
       <c r="AC44" t="s">
         <v>291</v>
       </c>
-      <c r="AD44" s="5">
+      <c r="AD44" s="6">
         <v>46621</v>
       </c>
       <c r="AE44" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -6572,24 +6595,24 @@
         <v>41</v>
       </c>
       <c r="R45" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="S45" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="U45" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="V45" t="s">
         <v>43</v>
       </c>
-      <c r="W45" s="5">
+      <c r="W45" s="6">
         <v>25338</v>
       </c>
       <c r="AC45" t="s">
         <v>352</v>
       </c>
-      <c r="AD45" s="5">
+      <c r="AD45" s="6">
         <v>46611</v>
       </c>
       <c r="AE45" t="s">
@@ -6609,7 +6632,7 @@
         <v>354</v>
       </c>
       <c r="AJ45" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.2">
@@ -6638,24 +6661,24 @@
         <v>41</v>
       </c>
       <c r="R46" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="S46" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="U46" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="V46" t="s">
         <v>43</v>
       </c>
-      <c r="W46" s="5">
+      <c r="W46" s="6">
         <v>30980</v>
       </c>
       <c r="Y46" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD46" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="AD46" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE46" t="s">
@@ -6710,21 +6733,21 @@
         <v>539</v>
       </c>
       <c r="S47" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="U47" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="V47" t="s">
         <v>43</v>
       </c>
-      <c r="W47" s="5">
+      <c r="W47" s="6">
         <v>35763</v>
       </c>
       <c r="Y47" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD47" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD47" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE47" t="s">
@@ -6779,18 +6802,18 @@
         <v>539</v>
       </c>
       <c r="S48" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="U48" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="V48" t="s">
         <v>43</v>
       </c>
-      <c r="W48" s="5">
+      <c r="W48" s="6">
         <v>30842</v>
       </c>
-      <c r="AD48" s="5" t="s">
+      <c r="AD48" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE48" t="s">
@@ -6845,18 +6868,18 @@
         <v>539</v>
       </c>
       <c r="S49" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="U49" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="V49" t="s">
         <v>43</v>
       </c>
-      <c r="W49" s="5">
+      <c r="W49" s="6">
         <v>22940</v>
       </c>
-      <c r="AD49" s="5" t="s">
+      <c r="AD49" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE49" t="s">
@@ -6911,25 +6934,25 @@
         <v>539</v>
       </c>
       <c r="S50" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="U50" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="V50" t="s">
         <v>43</v>
       </c>
-      <c r="W50" s="5">
+      <c r="W50" s="6">
         <v>38210</v>
       </c>
       <c r="Y50" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD50" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD50" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE50" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -6980,21 +7003,21 @@
         <v>539</v>
       </c>
       <c r="S51" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="U51" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="V51" t="s">
         <v>43</v>
       </c>
-      <c r="W51" s="5">
+      <c r="W51" s="6">
         <v>34779</v>
       </c>
       <c r="Y51" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD51" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD51" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE51" t="s">
@@ -7052,7 +7075,7 @@
         <v>539</v>
       </c>
       <c r="S52" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="U52">
         <v>55295168</v>
@@ -7060,13 +7083,13 @@
       <c r="V52" t="s">
         <v>43</v>
       </c>
-      <c r="W52" s="5">
+      <c r="W52" s="6">
         <v>36247</v>
       </c>
       <c r="Y52" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD52" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD52" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE52" t="s">
@@ -7121,25 +7144,25 @@
         <v>539</v>
       </c>
       <c r="S53" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="U53" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="V53" t="s">
         <v>43</v>
       </c>
-      <c r="W53" s="5">
+      <c r="W53" s="6">
         <v>33863</v>
       </c>
       <c r="Y53" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD53" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD53" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE53" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -7187,28 +7210,28 @@
         <v>41</v>
       </c>
       <c r="R54" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="S54" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="U54" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="V54" t="s">
         <v>43</v>
       </c>
-      <c r="W54" s="5">
+      <c r="W54" s="6">
         <v>34448</v>
       </c>
       <c r="Y54" t="s">
-        <v>989</v>
-      </c>
-      <c r="AD54" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="AD54" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE54" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -7259,25 +7282,25 @@
         <v>539</v>
       </c>
       <c r="S55" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="U55" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="V55" t="s">
         <v>43</v>
       </c>
-      <c r="W55" s="5">
+      <c r="W55" s="6">
         <v>37119</v>
       </c>
       <c r="Y55" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD55" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD55" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE55" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -7328,18 +7351,18 @@
         <v>539</v>
       </c>
       <c r="S56" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="U56" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="V56" t="s">
         <v>43</v>
       </c>
-      <c r="W56" s="5">
+      <c r="W56" s="6">
         <v>31382</v>
       </c>
-      <c r="AD56" s="5" t="s">
+      <c r="AD56" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE56" t="s">
@@ -7397,25 +7420,25 @@
         <v>539</v>
       </c>
       <c r="S57" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="U57" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="V57" t="s">
         <v>43</v>
       </c>
-      <c r="W57" s="5">
+      <c r="W57" s="6">
         <v>34850</v>
       </c>
       <c r="Y57" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD57" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD57" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE57" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -7466,21 +7489,21 @@
         <v>539</v>
       </c>
       <c r="S58" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="U58" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="V58" t="s">
         <v>43</v>
       </c>
-      <c r="W58" s="5">
+      <c r="W58" s="6">
         <v>36487</v>
       </c>
       <c r="Y58" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD58" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD58" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE58" t="s">
@@ -7532,18 +7555,18 @@
         <v>540</v>
       </c>
       <c r="S59" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="U59" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="V59" t="s">
         <v>43</v>
       </c>
-      <c r="W59" s="5">
+      <c r="W59" s="6">
         <v>20208</v>
       </c>
-      <c r="AD59" s="5" t="s">
+      <c r="AD59" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE59" t="s">
@@ -7601,18 +7624,18 @@
         <v>540</v>
       </c>
       <c r="S60" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="U60" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="V60" t="s">
         <v>51</v>
       </c>
-      <c r="W60" s="5">
+      <c r="W60" s="6">
         <v>26635</v>
       </c>
-      <c r="AD60" s="5" t="s">
+      <c r="AD60" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE60" t="s">
@@ -7670,21 +7693,21 @@
         <v>539</v>
       </c>
       <c r="S61" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="U61" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="V61" t="s">
         <v>51</v>
       </c>
-      <c r="W61" s="5">
+      <c r="W61" s="6">
         <v>30837</v>
       </c>
       <c r="Y61" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD61" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD61" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE61" t="s">
@@ -7730,7 +7753,7 @@
         <v>90365865</v>
       </c>
       <c r="J62" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="L62">
         <v>689529</v>
@@ -7742,28 +7765,28 @@
         <v>60</v>
       </c>
       <c r="S62" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="U62" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="V62" t="s">
         <v>43</v>
       </c>
-      <c r="W62" s="5">
+      <c r="W62" s="6">
         <v>35180</v>
       </c>
       <c r="Y62" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="AC62" t="s">
         <v>383</v>
       </c>
-      <c r="AD62" s="5">
+      <c r="AD62" s="6">
         <v>46180</v>
       </c>
       <c r="AE62" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -7817,25 +7840,25 @@
         <v>539</v>
       </c>
       <c r="S63" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="U63" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="V63" t="s">
         <v>51</v>
       </c>
-      <c r="W63" s="5">
+      <c r="W63" s="6">
         <v>33988</v>
       </c>
       <c r="Y63" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD63" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD63" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE63" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -7889,22 +7912,22 @@
         <v>539</v>
       </c>
       <c r="S64" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="U64" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="V64" t="s">
         <v>51</v>
       </c>
-      <c r="W64" s="5">
+      <c r="W64" s="6">
         <v>29060</v>
       </c>
-      <c r="AD64" s="5" t="s">
+      <c r="AD64" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE64" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -7955,25 +7978,25 @@
         <v>539</v>
       </c>
       <c r="S65" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="U65" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="V65" t="s">
         <v>43</v>
       </c>
-      <c r="W65" s="5">
+      <c r="W65" s="6">
         <v>34668</v>
       </c>
       <c r="Y65" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD65" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD65" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE65" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -7983,7 +8006,7 @@
         <v>21</v>
       </c>
       <c r="AH65" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="AI65" t="s">
         <v>428</v>
@@ -8021,24 +8044,24 @@
         <v>41</v>
       </c>
       <c r="R66" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="S66" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="U66" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="V66" t="s">
         <v>43</v>
       </c>
-      <c r="W66" s="5">
+      <c r="W66" s="6">
         <v>30803</v>
       </c>
       <c r="Y66" t="s">
-        <v>989</v>
-      </c>
-      <c r="AD66" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="AD66" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE66" t="s">
@@ -8090,28 +8113,28 @@
         <v>41</v>
       </c>
       <c r="R67" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="S67" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="U67" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="V67" t="s">
         <v>43</v>
       </c>
-      <c r="W67" s="5">
+      <c r="W67" s="6">
         <v>36823</v>
       </c>
       <c r="Y67" t="s">
-        <v>989</v>
-      </c>
-      <c r="AD67" s="5" t="s">
+        <v>992</v>
+      </c>
+      <c r="AD67" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE67" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -8121,7 +8144,7 @@
         <v>22</v>
       </c>
       <c r="AH67" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="AI67" t="s">
         <v>428</v>
@@ -8159,28 +8182,28 @@
         <v>41</v>
       </c>
       <c r="R68" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="S68" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="U68" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="V68" t="s">
         <v>43</v>
       </c>
-      <c r="W68" s="5">
+      <c r="W68" s="6">
         <v>36448</v>
       </c>
       <c r="Y68" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD68" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="AD68" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE68" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -8239,16 +8262,16 @@
         <v>539</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="T69" s="2"/>
       <c r="U69" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="V69" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="W69" s="5">
+      <c r="W69" s="6">
         <v>28882</v>
       </c>
       <c r="X69" s="2"/>
@@ -8257,7 +8280,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
-      <c r="AD69" s="5" t="s">
+      <c r="AD69" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE69" t="s">
@@ -8315,22 +8338,22 @@
         <v>539</v>
       </c>
       <c r="S70" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="U70" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="V70" t="s">
         <v>51</v>
       </c>
-      <c r="W70" s="5">
+      <c r="W70" s="6">
         <v>31138</v>
       </c>
-      <c r="AD70" s="5" t="s">
+      <c r="AD70" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE70" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AH70" t="s">
         <v>345</v>
@@ -8374,21 +8397,21 @@
         <v>539</v>
       </c>
       <c r="S71" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="U71" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="V71" t="s">
         <v>51</v>
       </c>
-      <c r="W71" s="5">
+      <c r="W71" s="6">
         <v>25818</v>
       </c>
       <c r="Y71" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD71" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD71" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE71" t="s">
@@ -8439,28 +8462,28 @@
         <v>539</v>
       </c>
       <c r="S72" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="U72" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="V72" t="s">
         <v>51</v>
       </c>
-      <c r="W72" s="5">
+      <c r="W72" s="6">
         <v>34471</v>
       </c>
       <c r="Y72" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="AC72" t="s">
         <v>79</v>
       </c>
-      <c r="AD72" s="5">
+      <c r="AD72" s="6">
         <v>46437</v>
       </c>
       <c r="AE72" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AH72" t="s">
         <v>80</v>
@@ -8507,21 +8530,21 @@
         <v>539</v>
       </c>
       <c r="S73" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="U73" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="V73" t="s">
         <v>43</v>
       </c>
-      <c r="W73" s="5">
+      <c r="W73" s="6">
         <v>25604</v>
       </c>
       <c r="AC73" t="s">
         <v>358</v>
       </c>
-      <c r="AD73" s="5">
+      <c r="AD73" s="6">
         <v>45702</v>
       </c>
       <c r="AE73" t="s">
@@ -8572,25 +8595,25 @@
         <v>539</v>
       </c>
       <c r="S74" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="U74" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="V74" t="s">
         <v>51</v>
       </c>
-      <c r="W74" s="5">
+      <c r="W74" s="6">
         <v>36414</v>
       </c>
       <c r="Y74" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD74" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD74" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE74" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AH74" t="s">
         <v>131</v>
@@ -8637,18 +8660,18 @@
         <v>540</v>
       </c>
       <c r="S75" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="U75" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="V75" t="s">
         <v>43</v>
       </c>
-      <c r="W75" s="5">
+      <c r="W75" s="6">
         <v>20723</v>
       </c>
-      <c r="AD75" s="5" t="s">
+      <c r="AD75" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE75" t="s">
@@ -8696,25 +8719,25 @@
         <v>539</v>
       </c>
       <c r="S76" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="U76" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="V76" t="s">
         <v>43</v>
       </c>
-      <c r="W76" s="5">
+      <c r="W76" s="6">
         <v>30823</v>
       </c>
       <c r="Y76" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD76" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD76" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE76" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AH76" t="s">
         <v>365</v>
@@ -8761,18 +8784,18 @@
         <v>539</v>
       </c>
       <c r="S77" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="U77" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="V77" t="s">
         <v>51</v>
       </c>
-      <c r="W77" s="5">
+      <c r="W77" s="6">
         <v>32192</v>
       </c>
-      <c r="AD77" s="5" t="s">
+      <c r="AD77" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE77" t="s">
@@ -8823,22 +8846,22 @@
         <v>539</v>
       </c>
       <c r="S78" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="U78" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="V78" t="s">
         <v>51</v>
       </c>
-      <c r="W78" s="5">
+      <c r="W78" s="6">
         <v>25463</v>
       </c>
-      <c r="AD78" s="5" t="s">
+      <c r="AD78" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE78" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AH78" t="s">
         <v>167</v>
@@ -8887,19 +8910,19 @@
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="S79" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="T79"/>
       <c r="U79" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="V79" t="s">
         <v>43</v>
       </c>
-      <c r="W79" s="5">
+      <c r="W79" s="6">
         <v>32959</v>
       </c>
       <c r="X79"/>
@@ -8910,7 +8933,7 @@
       <c r="AC79" t="s">
         <v>369</v>
       </c>
-      <c r="AD79" s="5">
+      <c r="AD79" s="6">
         <v>45386</v>
       </c>
       <c r="AE79" t="s">
@@ -8957,21 +8980,21 @@
         <v>41</v>
       </c>
       <c r="R80" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="S80" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="U80" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="V80" t="s">
         <v>43</v>
       </c>
-      <c r="W80" s="5">
+      <c r="W80" s="6">
         <v>35372</v>
       </c>
-      <c r="AD80" s="5" t="s">
+      <c r="AD80" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE80" t="s">
@@ -9019,18 +9042,18 @@
         <v>539</v>
       </c>
       <c r="S81" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="U81" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="V81" t="s">
         <v>43</v>
       </c>
-      <c r="W81" s="5">
+      <c r="W81" s="6">
         <v>30438</v>
       </c>
-      <c r="AD81" s="5" t="s">
+      <c r="AD81" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE81" t="s">
@@ -9081,18 +9104,18 @@
         <v>539</v>
       </c>
       <c r="S82" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="U82" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="V82" t="s">
         <v>43</v>
       </c>
-      <c r="W82" s="5">
+      <c r="W82" s="6">
         <v>31006</v>
       </c>
-      <c r="AD82" s="5" t="s">
+      <c r="AD82" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE82" t="s">
@@ -9143,25 +9166,25 @@
         <v>539</v>
       </c>
       <c r="S83" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="U83" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="V83" t="s">
         <v>51</v>
       </c>
-      <c r="W83" s="5">
+      <c r="W83" s="6">
         <v>36018</v>
       </c>
       <c r="Y83" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD83" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD83" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE83" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AH83" t="s">
         <v>390</v>
@@ -9205,22 +9228,22 @@
         <v>539</v>
       </c>
       <c r="S84" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="U84" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="V84" t="s">
         <v>43</v>
       </c>
-      <c r="W84" s="5">
+      <c r="W84" s="6">
         <v>33619</v>
       </c>
-      <c r="AD84" s="5" t="s">
+      <c r="AD84" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE84" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AH84" t="s">
         <v>392</v>
@@ -9267,18 +9290,18 @@
         <v>540</v>
       </c>
       <c r="S85" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="U85" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="V85" t="s">
         <v>51</v>
       </c>
-      <c r="W85" s="5">
+      <c r="W85" s="6">
         <v>31753</v>
       </c>
-      <c r="AD85" s="5" t="s">
+      <c r="AD85" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE85" t="s">
@@ -9329,18 +9352,18 @@
         <v>540</v>
       </c>
       <c r="S86" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="U86" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="V86" t="s">
         <v>43</v>
       </c>
-      <c r="W86" s="5">
+      <c r="W86" s="6">
         <v>31054</v>
       </c>
-      <c r="AD86" s="5" t="s">
+      <c r="AD86" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE86" t="s">
@@ -9391,18 +9414,18 @@
         <v>539</v>
       </c>
       <c r="S87" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="U87" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="V87" t="s">
         <v>51</v>
       </c>
-      <c r="W87" s="5">
+      <c r="W87" s="6">
         <v>32709</v>
       </c>
-      <c r="AD87" s="5" t="s">
+      <c r="AD87" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE87" t="s">
@@ -9447,31 +9470,31 @@
         <v>41</v>
       </c>
       <c r="R88" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="S88" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="U88" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="V88" t="s">
         <v>43</v>
       </c>
-      <c r="W88" s="5">
+      <c r="W88" s="6">
         <v>28635</v>
       </c>
       <c r="Y88" t="s">
-        <v>985</v>
-      </c>
-      <c r="AD88" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD88" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE88" t="s">
         <v>696</v>
       </c>
       <c r="AH88" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="AI88" t="s">
         <v>428</v>
@@ -9509,24 +9532,24 @@
         <v>41</v>
       </c>
       <c r="R89" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="S89" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="U89" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="V89" t="s">
         <v>43</v>
       </c>
-      <c r="W89" s="5">
+      <c r="W89" s="6">
         <v>29174</v>
       </c>
       <c r="Y89" t="s">
-        <v>985</v>
-      </c>
-      <c r="AD89" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD89" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE89" t="s">
@@ -9571,25 +9594,25 @@
         <v>41</v>
       </c>
       <c r="R90" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="S90" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="U90" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="V90" t="s">
         <v>43</v>
       </c>
-      <c r="W90" s="5">
+      <c r="W90" s="6">
         <v>34443</v>
       </c>
-      <c r="AD90" s="5" t="s">
+      <c r="AD90" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE90" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AH90" t="s">
         <v>410</v>
@@ -9630,24 +9653,24 @@
         <v>41</v>
       </c>
       <c r="R91" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="S91" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="U91" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="V91" t="s">
         <v>43</v>
       </c>
-      <c r="W91" s="5">
+      <c r="W91" s="6">
         <v>28535</v>
       </c>
       <c r="Y91" t="s">
-        <v>985</v>
-      </c>
-      <c r="AD91" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="AD91" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE91" t="s">
@@ -9663,1118 +9686,1118 @@
         <v>428</v>
       </c>
     </row>
-    <row r="92" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
+    <row r="92" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C92" s="7" t="s">
+      <c r="B92" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E92" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G92" s="9">
         <v>97487489</v>
       </c>
-      <c r="J92" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="L92" s="7">
+      <c r="J92" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="L92" s="9">
         <v>98652</v>
       </c>
-      <c r="M92" s="7" t="s">
+      <c r="M92" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="R92" s="7" t="s">
+      <c r="R92" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="S92" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="U92" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="V92" s="7" t="s">
+      <c r="S92" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="U92" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="V92" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="W92" s="8">
+      <c r="W92" s="10">
         <v>25848</v>
       </c>
-      <c r="AD92" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE92" s="7" t="s">
+      <c r="AD92" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE92" s="9" t="s">
         <v>696</v>
       </c>
-      <c r="AF92" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG92" s="9">
+      <c r="AF92" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="11">
         <f>VLOOKUP(D92,lookup!$A$2:$B$57,2,1)</f>
         <v>36</v>
       </c>
-      <c r="AH92" s="7" t="s">
+      <c r="AH92" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AI92" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ92" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="93" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
+      <c r="AI92" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ92" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="93" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C93" s="7" t="s">
+      <c r="B93" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="9">
         <v>98463930</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="L93" s="7">
+      <c r="L93" s="9">
         <v>520209</v>
       </c>
-      <c r="M93" s="7" t="s">
+      <c r="M93" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="R93" s="7" t="s">
+      <c r="R93" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="S93" s="7" t="s">
-        <v>902</v>
-      </c>
-      <c r="U93" s="7" t="s">
-        <v>903</v>
-      </c>
-      <c r="V93" s="7" t="s">
+      <c r="S93" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="U93" s="9" t="s">
+        <v>906</v>
+      </c>
+      <c r="V93" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="W93" s="8">
+      <c r="W93" s="10">
         <v>29748</v>
       </c>
-      <c r="AD93" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE93" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="AF93" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG93" s="9">
+      <c r="AD93" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE93" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="AF93" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="11">
         <f>VLOOKUP(D93,lookup!$A$2:$B$57,2,1)</f>
         <v>0</v>
       </c>
-      <c r="AH93" s="7" t="s">
+      <c r="AH93" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="AI93" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ93" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="94" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
+      <c r="AI93" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ93" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="94" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C94" s="7" t="s">
+      <c r="B94" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E94" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="9">
         <v>82662120</v>
       </c>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="L94" s="7">
+      <c r="L94" s="9">
         <v>738471</v>
       </c>
-      <c r="M94" s="7" t="s">
+      <c r="M94" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="R94" s="7" t="s">
+      <c r="R94" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="S94" s="7" t="s">
-        <v>802</v>
-      </c>
-      <c r="U94" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="V94" s="7" t="s">
+      <c r="S94" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="U94" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="V94" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="W94" s="8">
+      <c r="W94" s="10">
         <v>26374</v>
       </c>
-      <c r="Y94" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD94" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE94" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="AF94" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG94" s="9">
+      <c r="Y94" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD94" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE94" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="AF94" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="11">
         <f>VLOOKUP(D94,lookup!$A$2:$B$57,2,1)</f>
         <v>0</v>
       </c>
-      <c r="AH94" s="7" t="s">
+      <c r="AH94" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="AI94" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ94" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="95" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
+      <c r="AI94" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ94" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="95" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C95" s="7" t="s">
+      <c r="B95" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="9">
         <v>92702490</v>
       </c>
-      <c r="J95" s="7" t="s">
+      <c r="J95" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="L95" s="7">
+      <c r="L95" s="9">
         <v>320123</v>
       </c>
-      <c r="M95" s="7" t="s">
+      <c r="M95" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="R95" s="7" t="s">
+      <c r="R95" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="S95" s="7" t="s">
+      <c r="S95" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="U95" s="9" t="s">
+        <v>844</v>
+      </c>
+      <c r="V95" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W95" s="10">
+        <v>26265</v>
+      </c>
+      <c r="Y95" s="9" t="s">
+        <v>989</v>
+      </c>
+      <c r="AD95" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE95" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF95" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="11">
+        <f>VLOOKUP(D95,lookup!$A$2:$B$57,2,1)</f>
+        <v>0</v>
+      </c>
+      <c r="AH95" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI95" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ95" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="96" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="G96" s="9">
+        <v>90554501</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L96" s="9">
+        <v>738471</v>
+      </c>
+      <c r="M96" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R96" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S96" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="U96" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="V96" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W96" s="10">
+        <v>33902</v>
+      </c>
+      <c r="Y96" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="AD96" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE96" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="AF96" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="11">
+        <v>21</v>
+      </c>
+      <c r="AH96" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI96" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ96" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="97" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G97" s="9">
+        <v>81938165</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L97" s="9">
+        <v>730511</v>
+      </c>
+      <c r="M97" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R97" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="S97" s="9" t="s">
+        <v>763</v>
+      </c>
+      <c r="U97" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="V97" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W97" s="10">
+        <v>34105</v>
+      </c>
+      <c r="Y97" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="AC97" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD97" s="10">
+        <v>46799</v>
+      </c>
+      <c r="AE97" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="AF97" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="11">
+        <v>21</v>
+      </c>
+      <c r="AH97" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI97" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ97" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="98" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G98" s="9">
+        <v>89522657</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="L98" s="9">
+        <v>752362</v>
+      </c>
+      <c r="M98" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R98" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="S98" s="9" t="s">
+        <v>788</v>
+      </c>
+      <c r="U98" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="V98" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W98" s="10">
+        <v>36221</v>
+      </c>
+      <c r="Y98" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="AC98" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="AD98" s="10">
+        <v>46796</v>
+      </c>
+      <c r="AE98" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="AF98" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH98" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI98" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ98" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="G99" s="9">
+        <v>88943684</v>
+      </c>
+      <c r="J99" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L99" s="9">
+        <v>311153</v>
+      </c>
+      <c r="M99" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R99" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="S99" s="9" t="s">
+        <v>790</v>
+      </c>
+      <c r="U99" s="9" t="s">
+        <v>791</v>
+      </c>
+      <c r="V99" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W99" s="10">
+        <v>36191</v>
+      </c>
+      <c r="Y99" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="AC99" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD99" s="10">
+        <v>46385</v>
+      </c>
+      <c r="AE99" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="AF99" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH99" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI99" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ99" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G100" s="9">
+        <v>96930361</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L100" s="9">
+        <v>759419</v>
+      </c>
+      <c r="M100" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R100" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="S100" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="U100" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="V100" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W100" s="10">
+        <v>24858</v>
+      </c>
+      <c r="Y100" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="AD100" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE100" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF100" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH100" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI100" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ100" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="101" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G101" s="9">
+        <v>81723644</v>
+      </c>
+      <c r="J101" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L101" s="9">
+        <v>738471</v>
+      </c>
+      <c r="M101" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R101" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="S101" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="U101" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="V101" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W101" s="10">
+        <v>32022</v>
+      </c>
+      <c r="Y101" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="AD101" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE101" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="AF101" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="11">
+        <v>21</v>
+      </c>
+      <c r="AH101" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI101" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ101" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="102" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="G102" s="9">
+        <v>85106326</v>
+      </c>
+      <c r="J102" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L102" s="9">
+        <v>738471</v>
+      </c>
+      <c r="M102" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R102" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="S102" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="U102" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="V102" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W102" s="10">
+        <v>29037</v>
+      </c>
+      <c r="Y102" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="AD102" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE102" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="AF102" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="11">
+        <v>21</v>
+      </c>
+      <c r="AH102" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI102" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ102" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="103" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G103" s="9">
+        <v>91125651</v>
+      </c>
+      <c r="J103" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="L103" s="9">
+        <v>330055</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R103" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="S103" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="U103" s="9" t="s">
         <v>840</v>
       </c>
-      <c r="U95" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="V95" s="7" t="s">
+      <c r="V103" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="W95" s="8">
-        <v>26265</v>
-      </c>
-      <c r="Y95" s="7" t="s">
-        <v>986</v>
-      </c>
-      <c r="AD95" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE95" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="AF95" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG95" s="9">
-        <f>VLOOKUP(D95,lookup!$A$2:$B$57,2,1)</f>
-        <v>0</v>
-      </c>
-      <c r="AH95" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="AI95" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ95" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C96" s="7" t="s">
+      <c r="W103" s="10">
+        <v>34029</v>
+      </c>
+      <c r="Y103" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="AD103" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE103" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="AF103" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH103" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI103" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ103" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="104" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C104" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D104" s="9" t="s">
+        <v>796</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="G104" s="9">
+        <v>82364014</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>849</v>
+      </c>
+      <c r="L104" s="9">
+        <v>532475</v>
+      </c>
+      <c r="M104" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R104" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="S104" s="9" t="s">
+        <v>850</v>
+      </c>
+      <c r="V104" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W104" s="10">
+        <v>36813</v>
+      </c>
+      <c r="Y104" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="AD104" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE104" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="AF104" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH104" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="AI104" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ104" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="105" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L105" s="9">
+        <v>738471</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R105" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="U105" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="V105" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W105" s="10">
+        <v>35413</v>
+      </c>
+      <c r="Y105" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="AD105" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE105" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="AF105" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH105" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="AI105" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ105" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="106" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>707</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G106" s="9">
+        <v>81231401</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="L106" s="9">
+        <v>530559</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="R106" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="S106" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="U106" s="9" t="s">
+        <v>926</v>
+      </c>
+      <c r="V106" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W106" s="10">
+        <v>26229</v>
+      </c>
+      <c r="Y106" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="AD106" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE106" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="AG106" s="11"/>
+      <c r="AH106" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="AI106" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ106" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="107" spans="1:36" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E107" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="G96" s="7">
-        <v>90554501</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L96" s="7">
-        <v>738471</v>
-      </c>
-      <c r="M96" s="7" t="s">
+      <c r="F107" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G107" s="9">
+        <v>84668344</v>
+      </c>
+      <c r="J107" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="L107" s="9">
+        <v>735786</v>
+      </c>
+      <c r="M107" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="R96" s="7" t="s">
+      <c r="R107" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="S96" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="U96" s="7" t="s">
-        <v>759</v>
-      </c>
-      <c r="V96" s="7" t="s">
+      <c r="S107" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="U107" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="V107" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="W96" s="8">
-        <v>33902</v>
-      </c>
-      <c r="Y96" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="AD96" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE96" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="AF96" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG96" s="9">
-        <v>21</v>
-      </c>
-      <c r="AH96" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI96" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ96" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="97" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D97" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G97" s="7">
-        <v>81938165</v>
-      </c>
-      <c r="J97" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L97" s="7">
-        <v>730511</v>
-      </c>
-      <c r="M97" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R97" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S97" s="7" t="s">
-        <v>760</v>
-      </c>
-      <c r="U97" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="V97" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W97" s="8">
-        <v>34105</v>
-      </c>
-      <c r="Y97" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="AC97" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD97" s="8">
-        <v>46799</v>
-      </c>
-      <c r="AE97" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="AF97" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG97" s="9">
-        <v>21</v>
-      </c>
-      <c r="AH97" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI97" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ97" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="98" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G98" s="7">
-        <v>89522657</v>
-      </c>
-      <c r="J98" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L98" s="7">
-        <v>752362</v>
-      </c>
-      <c r="M98" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R98" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="S98" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="U98" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="V98" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W98" s="8">
-        <v>36221</v>
-      </c>
-      <c r="Y98" s="7" t="s">
-        <v>984</v>
-      </c>
-      <c r="AC98" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="AD98" s="8">
-        <v>46796</v>
-      </c>
-      <c r="AE98" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="AF98" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG98" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH98" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI98" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ98" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="99" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G99" s="7">
-        <v>88943684</v>
-      </c>
-      <c r="J99" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L99" s="7">
-        <v>311153</v>
-      </c>
-      <c r="M99" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R99" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="S99" s="7" t="s">
-        <v>787</v>
-      </c>
-      <c r="U99" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="V99" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W99" s="8">
-        <v>36191</v>
-      </c>
-      <c r="Y99" s="7" t="s">
-        <v>984</v>
-      </c>
-      <c r="AC99" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD99" s="8">
-        <v>46385</v>
-      </c>
-      <c r="AE99" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="AF99" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG99" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH99" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="AI99" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ99" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="100" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G100" s="7">
-        <v>96930361</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L100" s="7">
-        <v>759419</v>
-      </c>
-      <c r="M100" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R100" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="S100" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="U100" s="7" t="s">
-        <v>797</v>
-      </c>
-      <c r="V100" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W100" s="8">
-        <v>24858</v>
-      </c>
-      <c r="Y100" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="AD100" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE100" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="AF100" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG100" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH100" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI100" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ100" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="101" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G101" s="7">
-        <v>81723644</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L101" s="7">
-        <v>738471</v>
-      </c>
-      <c r="M101" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R101" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="S101" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="U101" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="V101" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W101" s="8">
-        <v>32022</v>
-      </c>
-      <c r="Y101" s="7" t="s">
-        <v>987</v>
-      </c>
-      <c r="AD101" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE101" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="AF101" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG101" s="9">
-        <v>21</v>
-      </c>
-      <c r="AH101" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="AI101" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ101" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="102" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="G102" s="7">
-        <v>85106326</v>
-      </c>
-      <c r="J102" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L102" s="7">
-        <v>738471</v>
-      </c>
-      <c r="M102" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R102" s="7" t="s">
-        <v>818</v>
-      </c>
-      <c r="S102" s="7" t="s">
-        <v>819</v>
-      </c>
-      <c r="U102" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="V102" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W102" s="8">
-        <v>29037</v>
-      </c>
-      <c r="Y102" s="7" t="s">
-        <v>989</v>
-      </c>
-      <c r="AD102" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE102" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="AF102" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG102" s="9">
-        <v>21</v>
-      </c>
-      <c r="AH102" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="AI102" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ102" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="103" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G103" s="7">
-        <v>91125651</v>
-      </c>
-      <c r="J103" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L103" s="7">
-        <v>330055</v>
-      </c>
-      <c r="M103" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R103" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="S103" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="U103" s="7" t="s">
-        <v>837</v>
-      </c>
-      <c r="V103" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W103" s="8">
-        <v>34029</v>
-      </c>
-      <c r="Y103" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="AD103" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE103" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="AF103" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG103" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH103" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="AI103" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ103" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="104" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="G104" s="7">
-        <v>82364014</v>
-      </c>
-      <c r="J104" s="7" t="s">
-        <v>846</v>
-      </c>
-      <c r="L104" s="7">
-        <v>532475</v>
-      </c>
-      <c r="M104" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R104" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="S104" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="V104" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W104" s="8">
-        <v>36813</v>
-      </c>
-      <c r="Y104" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="AD104" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE104" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="AF104" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG104" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH104" s="7" t="s">
-        <v>973</v>
-      </c>
-      <c r="AI104" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ104" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="105" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>981</v>
-      </c>
-      <c r="J105" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L105" s="7">
-        <v>738471</v>
-      </c>
-      <c r="M105" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R105" s="7" t="s">
-        <v>752</v>
-      </c>
-      <c r="U105" s="7" t="s">
-        <v>915</v>
-      </c>
-      <c r="V105" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W105" s="8">
-        <v>35413</v>
-      </c>
-      <c r="Y105" s="7" t="s">
-        <v>984</v>
-      </c>
-      <c r="AD105" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE105" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="AF105" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG105" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH105" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="AI105" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ105" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="106" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G106" s="7">
-        <v>81231401</v>
-      </c>
-      <c r="J106" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L106" s="7">
-        <v>530559</v>
-      </c>
-      <c r="M106" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R106" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="S106" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="U106" s="7" t="s">
-        <v>923</v>
-      </c>
-      <c r="V106" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W106" s="8">
-        <v>26229</v>
-      </c>
-      <c r="Y106" s="7" t="s">
-        <v>988</v>
-      </c>
-      <c r="AD106" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="AE106" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="AG106" s="9"/>
-      <c r="AH106" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="AI106" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ106" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="107" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D107" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>707</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G107" s="7">
-        <v>84668344</v>
-      </c>
-      <c r="J107" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="L107" s="7">
-        <v>735786</v>
-      </c>
-      <c r="M107" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R107" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="S107" s="7" t="s">
-        <v>946</v>
-      </c>
-      <c r="U107" s="7" t="s">
-        <v>947</v>
-      </c>
-      <c r="V107" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="W107" s="8">
+      <c r="W107" s="10">
         <v>33285</v>
       </c>
-      <c r="Y107" s="7" t="s">
-        <v>990</v>
-      </c>
-      <c r="AC107" s="7" t="s">
+      <c r="Y107" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="AC107" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="AD107" s="8">
+      <c r="AD107" s="10">
         <v>45834</v>
       </c>
-      <c r="AE107" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="AG107" s="9"/>
-      <c r="AH107" s="7" t="s">
+      <c r="AE107" s="9" t="s">
+        <v>985</v>
+      </c>
+      <c r="AG107" s="11"/>
+      <c r="AH107" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="AI107" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="AJ107" s="7" t="s">
+      <c r="AI107" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="AJ107" s="9" t="s">
         <v>428</v>
       </c>
     </row>
@@ -10785,7 +10808,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="AH1:AH1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10796,7 +10819,7 @@
   <dimension ref="A1:AJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10971,7 +10994,7 @@
         <v>97487489</v>
       </c>
       <c r="J2" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="L2">
         <v>98652</v>
@@ -10983,18 +11006,18 @@
         <v>540</v>
       </c>
       <c r="S2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="U2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="6">
         <v>25848</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE2" t="s">
@@ -11052,22 +11075,22 @@
         <v>540</v>
       </c>
       <c r="S3" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="U3" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="V3" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="6">
         <v>29748</v>
       </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE3" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -11121,7 +11144,7 @@
         <v>540</v>
       </c>
       <c r="S4" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="U4" t="s">
         <v>577</v>
@@ -11129,10 +11152,10 @@
       <c r="V4" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="6">
         <v>26419</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AD4" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE4" t="s">
@@ -11350,25 +11373,25 @@
         <v>539</v>
       </c>
       <c r="S2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="U2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="6">
         <v>26374</v>
       </c>
       <c r="Y2" t="s">
         <v>546</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -11422,21 +11445,21 @@
         <v>540</v>
       </c>
       <c r="S3" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="U3" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="V3" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="6">
         <v>26265</v>
       </c>
       <c r="Y3" t="s">
-        <v>780</v>
-      </c>
-      <c r="AD3" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="AD3" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE3" t="s">
@@ -11494,7 +11517,7 @@
         <v>540</v>
       </c>
       <c r="S4" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="U4" t="s">
         <v>577</v>
@@ -11502,10 +11525,10 @@
       <c r="V4" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="6">
         <v>26419</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AD4" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE4" t="s">
@@ -11723,25 +11746,25 @@
         <v>60</v>
       </c>
       <c r="S2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="U2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="6">
         <v>33902</v>
       </c>
       <c r="Y2" t="s">
         <v>552</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -11794,15 +11817,15 @@
         <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="U3" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="V3" t="s">
         <v>43</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="6">
         <v>34105</v>
       </c>
       <c r="Y3" t="s">
@@ -11811,11 +11834,11 @@
       <c r="AC3" t="s">
         <v>66</v>
       </c>
-      <c r="AD3" s="5">
+      <c r="AD3" s="6">
         <v>46799</v>
       </c>
       <c r="AE3" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -11865,31 +11888,31 @@
         <v>41</v>
       </c>
       <c r="R4" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="S4" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="U4" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="V4" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="6">
         <v>36221</v>
       </c>
       <c r="Y4" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="AC4" t="s">
         <v>205</v>
       </c>
-      <c r="AD4" s="5">
+      <c r="AD4" s="6">
         <v>46796</v>
       </c>
       <c r="AE4" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -11939,31 +11962,31 @@
         <v>41</v>
       </c>
       <c r="R5" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="S5" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="U5" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="V5" t="s">
         <v>43</v>
       </c>
-      <c r="W5" s="5">
+      <c r="W5" s="6">
         <v>36191</v>
       </c>
       <c r="Y5" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="AC5" t="s">
         <v>182</v>
       </c>
-      <c r="AD5" s="5">
+      <c r="AD5" s="6">
         <v>46385</v>
       </c>
       <c r="AE5" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -12016,21 +12039,21 @@
         <v>540</v>
       </c>
       <c r="S6" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="U6" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="V6" t="s">
         <v>43</v>
       </c>
-      <c r="W6" s="5">
+      <c r="W6" s="6">
         <v>24858</v>
       </c>
       <c r="Y6" t="s">
         <v>581</v>
       </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AD6" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE6" t="s">
@@ -12084,28 +12107,28 @@
         <v>41</v>
       </c>
       <c r="R7" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="S7" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="U7" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="V7" t="s">
         <v>43</v>
       </c>
-      <c r="W7" s="5">
+      <c r="W7" s="6">
         <v>32022</v>
       </c>
       <c r="Y7" t="s">
-        <v>817</v>
-      </c>
-      <c r="AD7" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="AD7" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE7" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -12152,24 +12175,24 @@
         <v>41</v>
       </c>
       <c r="R8" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="S8" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="U8" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="V8" t="s">
         <v>43</v>
       </c>
-      <c r="W8" s="5">
+      <c r="W8" s="6">
         <v>29037</v>
       </c>
       <c r="Y8" t="s">
-        <v>821</v>
-      </c>
-      <c r="AD8" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="AD8" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE8" t="s">
@@ -12226,25 +12249,25 @@
         <v>540</v>
       </c>
       <c r="S9" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="U9" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="V9" t="s">
         <v>43</v>
       </c>
-      <c r="W9" s="5">
+      <c r="W9" s="6">
         <v>34029</v>
       </c>
       <c r="Y9" t="s">
         <v>581</v>
       </c>
-      <c r="AD9" s="5" t="s">
+      <c r="AD9" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE9" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -12273,7 +12296,7 @@
         <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="E10" t="s">
         <v>707</v>
@@ -12282,7 +12305,7 @@
         <v>82364014</v>
       </c>
       <c r="J10" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="L10">
         <v>532475</v>
@@ -12294,22 +12317,22 @@
         <v>540</v>
       </c>
       <c r="S10" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="V10" t="s">
         <v>43</v>
       </c>
-      <c r="W10" s="5">
+      <c r="W10" s="6">
         <v>36813</v>
       </c>
       <c r="Y10" t="s">
         <v>581</v>
       </c>
-      <c r="AD10" s="5" t="s">
+      <c r="AD10" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE10" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -12318,7 +12341,7 @@
         <v>0</v>
       </c>
       <c r="AH10" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="AI10" t="s">
         <v>428</v>
@@ -12343,8 +12366,8 @@
       <c r="E11" t="s">
         <v>707</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>981</v>
+      <c r="G11" s="7" t="s">
+        <v>984</v>
       </c>
       <c r="J11" t="s">
         <v>40</v>
@@ -12356,25 +12379,25 @@
         <v>41</v>
       </c>
       <c r="R11" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="U11" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="V11" t="s">
         <v>43</v>
       </c>
-      <c r="W11" s="5">
+      <c r="W11" s="6">
         <v>35413</v>
       </c>
       <c r="Y11" t="s">
-        <v>754</v>
-      </c>
-      <c r="AD11" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="AD11" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE11" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -12427,25 +12450,25 @@
         <v>540</v>
       </c>
       <c r="S12" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="U12" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="V12" t="s">
         <v>43</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="6">
         <v>26229</v>
       </c>
       <c r="Y12" t="s">
         <v>581</v>
       </c>
-      <c r="AD12" s="5" t="s">
+      <c r="AD12" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE12" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" t="s">
@@ -12493,15 +12516,15 @@
         <v>60</v>
       </c>
       <c r="S13" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="U13" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="V13" t="s">
         <v>43</v>
       </c>
-      <c r="W13" s="5">
+      <c r="W13" s="6">
         <v>33285</v>
       </c>
       <c r="Y13" t="s">
@@ -12510,11 +12533,11 @@
       <c r="AC13" t="s">
         <v>378</v>
       </c>
-      <c r="AD13" s="5">
+      <c r="AD13" s="6">
         <v>45834</v>
       </c>
       <c r="AE13" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" t="s">
@@ -12562,7 +12585,7 @@
         <v>540</v>
       </c>
       <c r="S14" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="U14" t="s">
         <v>577</v>
@@ -12570,10 +12593,10 @@
       <c r="V14" t="s">
         <v>43</v>
       </c>
-      <c r="W14" s="5">
+      <c r="W14" s="6">
         <v>26419</v>
       </c>
-      <c r="AD14" s="5" t="s">
+      <c r="AD14" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE14" t="s">
@@ -12605,7 +12628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96095BC9-87F7-4A0E-B51A-A96CAED58D80}">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -12735,19 +12758,19 @@
         <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="E2" t="s">
         <v>691</v>
       </c>
       <c r="F2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="G2">
         <v>97348586</v>
       </c>
       <c r="J2" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="L2">
         <v>759283</v>
@@ -12759,21 +12782,21 @@
         <v>540</v>
       </c>
       <c r="S2" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="U2" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="6">
         <v>25964</v>
       </c>
       <c r="Y2" t="s">
-        <v>988</v>
-      </c>
-      <c r="AD2" s="5" t="s">
+        <v>991</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE2" t="s">
@@ -12787,7 +12810,7 @@
         <v>36</v>
       </c>
       <c r="AH2" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="AI2" t="s">
         <v>428</v>
@@ -12798,10 +12821,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AH1">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12962,7 +12985,7 @@
         <v>540</v>
       </c>
       <c r="S2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="U2" t="s">
         <v>577</v>
@@ -12970,10 +12993,10 @@
       <c r="V2" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="6">
         <v>26419</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" s="6" t="s">
         <v>428</v>
       </c>
       <c r="AE2" t="s">
